--- a/out/ExcellFiles/Cartesian4.xlsx
+++ b/out/ExcellFiles/Cartesian4.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59043</v>
+        <v>50000</v>
       </c>
       <c r="C2">
-        <v>6628</v>
+        <v>41848.8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>7.754925639435714</v>
+        <v>3.091773776916079</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59044</v>
+        <v>50001</v>
       </c>
       <c r="C3">
-        <v>4244.389445975987</v>
+        <v>41783.92685067584</v>
       </c>
       <c r="D3">
-        <v>5085.671364864306</v>
+        <v>2321.550563059392</v>
       </c>
       <c r="E3">
-        <v>-0.005335368319928035</v>
+        <v>-0.7822961496487453</v>
       </c>
       <c r="F3">
-        <v>-5.961611173324507</v>
+        <v>-0.1706247013479684</v>
       </c>
       <c r="G3">
-        <v>4.965634791981054</v>
+        <v>3.087082345687602</v>
       </c>
       <c r="H3">
-        <v>1.178727820194661e-05</v>
+        <v>0.0001041389036522654</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>59045</v>
+        <v>50002</v>
       </c>
       <c r="C4">
-        <v>-1387.338635504283</v>
+        <v>41591.11893891082</v>
       </c>
       <c r="D4">
-        <v>6469.297265890732</v>
+        <v>4636.39688901937</v>
       </c>
       <c r="E4">
-        <v>0.01422203450706428</v>
+        <v>-1.786454467622276</v>
       </c>
       <c r="F4">
-        <v>-7.592072893396772</v>
+        <v>-0.3407442105176317</v>
       </c>
       <c r="G4">
-        <v>-1.639547113384575</v>
+        <v>3.072921574814083</v>
       </c>
       <c r="H4">
-        <v>2.660667583659313e-05</v>
+        <v>0.0002142080557203337</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59046</v>
+        <v>50003</v>
       </c>
       <c r="C5">
-        <v>-6034.571887309004</v>
+        <v>41270.88796671174</v>
       </c>
       <c r="D5">
-        <v>2692.718459110964</v>
+        <v>6937.457416873523</v>
       </c>
       <c r="E5">
-        <v>0.04609095732108571</v>
+        <v>-2.96348150740865</v>
       </c>
       <c r="F5">
-        <v>-3.160829679583009</v>
+        <v>-0.5098298415066769</v>
       </c>
       <c r="G5">
-        <v>-7.104560272773155</v>
+        <v>3.049334499911584</v>
       </c>
       <c r="H5">
-        <v>-5.147998241004025e-07</v>
+        <v>0.0003222836089365122</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>59047</v>
+        <v>50004</v>
       </c>
       <c r="C6">
-        <v>-5615.164317385867</v>
+        <v>40824.14764307251</v>
       </c>
       <c r="D6">
-        <v>-3474.946162971298</v>
+        <v>9217.64889590808</v>
       </c>
       <c r="E6">
-        <v>0.03577459145532015</v>
+        <v>-4.243477132086031</v>
       </c>
       <c r="F6">
-        <v>4.094948075993143</v>
+        <v>-0.6773538435199262</v>
       </c>
       <c r="G6">
-        <v>-6.615795427079121</v>
+        <v>3.016394233268676</v>
       </c>
       <c r="H6">
-        <v>-6.943719589507439e-05</v>
+        <v>0.0004225361132617879</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59048</v>
+        <v>50005</v>
       </c>
       <c r="C7">
-        <v>-57.33267065574687</v>
+        <v>40252.21862496717</v>
       </c>
       <c r="D7">
-        <v>-6604.559568740063</v>
+        <v>11469.92272408793</v>
       </c>
       <c r="E7">
-        <v>-0.0429330193969558</v>
+        <v>-5.54561372981612</v>
       </c>
       <c r="F7">
-        <v>7.777782227924219</v>
+        <v>-0.8427919815223393</v>
       </c>
       <c r="G7">
-        <v>-0.07505790670313424</v>
+        <v>2.974204312970098</v>
       </c>
       <c r="H7">
-        <v>-9.883607465049798e-05</v>
+        <v>0.0005113658455878611</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59049</v>
+        <v>50006</v>
       </c>
       <c r="C8">
-        <v>5678.262528209797</v>
+        <v>39556.82890787955</v>
       </c>
       <c r="D8">
-        <v>-3384.733001710255</v>
+        <v>13687.29978411213</v>
       </c>
       <c r="E8">
-        <v>-0.1192901229902767</v>
+        <v>-6.784151067826589</v>
       </c>
       <c r="F8">
-        <v>3.987442727686746</v>
+        <v>-1.005626258230508</v>
       </c>
       <c r="G8">
-        <v>6.669356532864611</v>
+        <v>2.922898601196976</v>
       </c>
       <c r="H8">
-        <v>-9.312427129242172e-06</v>
+        <v>0.0005872754343459708</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59050</v>
+        <v>50007</v>
       </c>
       <c r="C9">
-        <v>5676.462497406239</v>
+        <v>38740.11102278336</v>
       </c>
       <c r="D9">
-        <v>3397.108002928008</v>
+        <v>15862.90345098451</v>
       </c>
       <c r="E9">
-        <v>-0.07775508351283253</v>
+        <v>-7.871172676420548</v>
       </c>
       <c r="F9">
-        <v>-3.982454829152007</v>
+        <v>-1.165346447840883</v>
       </c>
       <c r="G9">
-        <v>6.664612793821203</v>
+        <v>2.86264114346503</v>
       </c>
       <c r="H9">
-        <v>0.0001407183369837671</v>
+        <v>0.0006508904756120198</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59051</v>
+        <v>50008</v>
       </c>
       <c r="C10">
-        <v>-547.0860844188305</v>
+        <v>37804.59479523424</v>
       </c>
       <c r="D10">
-        <v>6591.233355741758</v>
+        <v>17989.99320077771</v>
       </c>
       <c r="E10">
-        <v>0.08077662981384123</v>
+        <v>-8.718208946515425</v>
       </c>
       <c r="F10">
-        <v>-7.737631068379644</v>
+        <v>-1.321455466250977</v>
       </c>
       <c r="G10">
-        <v>-0.6463550219160619</v>
+        <v>2.793624045623506</v>
       </c>
       <c r="H10">
-        <v>0.0001656790286590652</v>
+        <v>0.000704452110207537</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59052</v>
+        <v>50009</v>
       </c>
       <c r="C11">
-        <v>-6244.24325013407</v>
+        <v>36753.19304070788</v>
       </c>
       <c r="D11">
-        <v>2154.804553625282</v>
+        <v>20061.99999022973</v>
       </c>
       <c r="E11">
-        <v>0.1757590953835032</v>
+        <v>-9.239728691541215</v>
       </c>
       <c r="F11">
-        <v>-2.526618981867096</v>
+        <v>-1.473470044358393</v>
       </c>
       <c r="G11">
-        <v>-7.351169207460724</v>
+        <v>2.716066397955723</v>
       </c>
       <c r="H11">
-        <v>-1.909826472431858e-05</v>
+        <v>0.0007521566607395758</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>59053</v>
+        <v>50010</v>
       </c>
       <c r="C12">
-        <v>-4262.690014970047</v>
+        <v>35589.18458588346</v>
       </c>
       <c r="D12">
-        <v>-5033.871926175125</v>
+        <v>22072.567207516</v>
       </c>
       <c r="E12">
-        <v>0.05019936089585685</v>
+        <v>-9.360292478288372</v>
       </c>
       <c r="F12">
-        <v>5.943428332711199</v>
+        <v>-1.620921524665527</v>
       </c>
       <c r="G12">
-        <v>-5.02525544035233</v>
+        <v>2.630212567990144</v>
       </c>
       <c r="H12">
-        <v>-0.0002094574608609013</v>
+        <v>0.0008005124795530408</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59054</v>
+        <v>50011</v>
       </c>
       <c r="C13">
-        <v>3412.11561785886</v>
+        <v>34316.18441978553</v>
       </c>
       <c r="D13">
-        <v>-5641.916755432529</v>
+        <v>24015.5959063623</v>
       </c>
       <c r="E13">
-        <v>-0.1578369978144683</v>
+        <v>-9.028565034569809</v>
       </c>
       <c r="F13">
-        <v>6.663710698350196</v>
+        <v>-1.763358703636383</v>
       </c>
       <c r="G13">
-        <v>4.025696345069382</v>
+        <v>2.536328999182939</v>
       </c>
       <c r="H13">
-        <v>-0.0001196539364915828</v>
+        <v>0.0008580497728477558</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59055</v>
+        <v>50012</v>
       </c>
       <c r="C14">
-        <v>6367.078876385019</v>
+        <v>32938.10010420952</v>
       </c>
       <c r="D14">
-        <v>1731.807256249336</v>
+        <v>25885.28589648482</v>
       </c>
       <c r="E14">
-        <v>-0.1328463979285316</v>
+        <v>-8.237824298387396</v>
       </c>
       <c r="F14">
-        <v>-2.032867229269494</v>
+        <v>-1.900348895200478</v>
       </c>
       <c r="G14">
-        <v>7.507852309635865</v>
+        <v>2.434701387697372</v>
       </c>
       <c r="H14">
-        <v>0.0001570202717306406</v>
+        <v>0.0009345716690215204</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59056</v>
+        <v>50013</v>
       </c>
       <c r="C15">
-        <v>-225.7850187495816</v>
+        <v>31459.08081769985</v>
       </c>
       <c r="D15">
-        <v>6599.21247682942</v>
+        <v>27676.15582212385</v>
       </c>
       <c r="E15">
-        <v>0.115647379280954</v>
+        <v>-7.047313183445558</v>
       </c>
       <c r="F15">
-        <v>-7.767035221799954</v>
+        <v>-2.031477915102292</v>
       </c>
       <c r="G15">
-        <v>-0.2624267640421358</v>
+        <v>2.325632937212943</v>
       </c>
       <c r="H15">
-        <v>0.0001774233049399573</v>
+        <v>0.001039399230682529</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59057</v>
+        <v>50014</v>
       </c>
       <c r="C16">
-        <v>-6529.050245532602</v>
+        <v>29883.4781466611</v>
       </c>
       <c r="D16">
-        <v>955.8951212373834</v>
+        <v>29383.02233565383</v>
       </c>
       <c r="E16">
-        <v>0.1616543832861604</v>
+        <v>-5.592059908271494</v>
       </c>
       <c r="F16">
-        <v>-1.120085871834005</v>
+        <v>-2.15634891217835</v>
       </c>
       <c r="G16">
-        <v>-7.694139237169236</v>
+        <v>2.209445092798096</v>
       </c>
       <c r="H16">
-        <v>-0.0001298742208060126</v>
+        <v>0.001178617557367252</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59058</v>
+        <v>50015</v>
       </c>
       <c r="C17">
-        <v>-1733.874277368813</v>
+        <v>28215.84594708281</v>
       </c>
       <c r="D17">
-        <v>-6355.447670441095</v>
+        <v>31000.93395016871</v>
       </c>
       <c r="E17">
-        <v>-0.1165965010716613</v>
+        <v>-4.066260436489675</v>
       </c>
       <c r="F17">
-        <v>7.513964461619103</v>
+        <v>-2.274580701181323</v>
       </c>
       <c r="G17">
-        <v>-2.042836160790891</v>
+        <v>2.086481386921511</v>
       </c>
       <c r="H17">
-        <v>-0.0002021686215622373</v>
+        <v>0.001352110072280639</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59059</v>
+        <v>50016</v>
       </c>
       <c r="C18">
-        <v>6239.083461609831</v>
+        <v>26460.99240129168</v>
       </c>
       <c r="D18">
-        <v>-2098.384776183195</v>
+        <v>32525.08973552365</v>
       </c>
       <c r="E18">
-        <v>-0.1779893522992703</v>
+        <v>-2.674511062818785</v>
       </c>
       <c r="F18">
-        <v>2.486234996433575</v>
+        <v>-2.385807041245499</v>
       </c>
       <c r="G18">
-        <v>7.383935910536684</v>
+        <v>1.957112939340522</v>
       </c>
       <c r="H18">
-        <v>0.0001580650815374025</v>
+        <v>0.001551901830302057</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59060</v>
+        <v>50017</v>
       </c>
       <c r="C19">
-        <v>2066.046908559485</v>
+        <v>24624.05848736624</v>
       </c>
       <c r="D19">
-        <v>6254.736244667954</v>
+        <v>33950.79919294383</v>
       </c>
       <c r="E19">
-        <v>0.1592125635548103</v>
+        <v>-1.56552523143048</v>
       </c>
       <c r="F19">
-        <v>-7.389003235462654</v>
+        <v>-2.48967830527272</v>
       </c>
       <c r="G19">
-        <v>2.448469613041556</v>
+        <v>1.821742111554618</v>
       </c>
       <c r="H19">
-        <v>0.0002118171632932009</v>
+        <v>0.001763182157420901</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59061</v>
+        <v>50018</v>
       </c>
       <c r="C20">
-        <v>-6389.010354774115</v>
+        <v>22710.56618618086</v>
       </c>
       <c r="D20">
-        <v>1610.111101382647</v>
+        <v>35273.52103513073</v>
       </c>
       <c r="E20">
-        <v>0.1661431701201231</v>
+        <v>-0.7793215932205355</v>
       </c>
       <c r="F20">
-        <v>-1.900384338889366</v>
+        <v>-2.585865706440405</v>
       </c>
       <c r="G20">
-        <v>-7.544649696750088</v>
+        <v>1.680801153836932</v>
       </c>
       <c r="H20">
-        <v>-0.0002259984216375884</v>
+        <v>0.001968018320408862</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59062</v>
+        <v>50019</v>
       </c>
       <c r="C21">
-        <v>-641.3368081614639</v>
+        <v>20726.39560942159</v>
       </c>
       <c r="D21">
-        <v>-6547.272280668232</v>
+        <v>36488.96205529505</v>
       </c>
       <c r="E21">
-        <v>-0.2263718654236563</v>
+        <v>-0.2341572539680551</v>
       </c>
       <c r="F21">
-        <v>7.753892522836249</v>
+        <v>-2.674066521456764</v>
       </c>
       <c r="G21">
-        <v>-0.7526501010235768</v>
+        <v>1.53474577402125</v>
       </c>
       <c r="H21">
-        <v>-0.0001543354205582841</v>
+        <v>0.002150150048724117</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59063</v>
+        <v>50020</v>
       </c>
       <c r="C22">
-        <v>6505.879241317355</v>
+        <v>18677.70246761357</v>
       </c>
       <c r="D22">
-        <v>916.0724252436216</v>
+        <v>37593.17764473497</v>
       </c>
       <c r="E22">
-        <v>-0.06386971976284726</v>
+        <v>0.2439113728816057</v>
       </c>
       <c r="F22">
-        <v>-1.086118834350521</v>
+        <v>-2.754008122538621</v>
       </c>
       <c r="G22">
-        <v>7.72214012190917</v>
+        <v>1.384046672615508</v>
       </c>
       <c r="H22">
-        <v>0.0003017533693768066</v>
+        <v>0.002298761690931531</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59064</v>
+        <v>50021</v>
       </c>
       <c r="C23">
-        <v>-2987.767413817639</v>
+        <v>16570.82418406216</v>
       </c>
       <c r="D23">
-        <v>5854.625974338116</v>
+        <v>38582.62801183289</v>
       </c>
       <c r="E23">
-        <v>0.2541152183385895</v>
+        <v>0.8675568112305762</v>
       </c>
       <c r="F23">
-        <v>-6.943213414444865</v>
+        <v>-2.825449552357279</v>
       </c>
       <c r="G23">
-        <v>-3.53706146362993</v>
+        <v>1.229182556870096</v>
       </c>
       <c r="H23">
-        <v>-3.91354165765914e-05</v>
+        <v>0.002410026872549432</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59065</v>
+        <v>50022</v>
       </c>
       <c r="C24">
-        <v>-4028.729423256562</v>
+        <v>14412.2166112233</v>
       </c>
       <c r="D24">
-        <v>-5189.415086479629</v>
+        <v>39454.18518436055</v>
       </c>
       <c r="E24">
-        <v>-0.1430477234551427</v>
+        <v>1.834468623630384</v>
       </c>
       <c r="F24">
-        <v>6.157821892464018</v>
+        <v>-2.888180808620833</v>
       </c>
       <c r="G24">
-        <v>-4.776224538171338</v>
+        <v>1.070636330626054</v>
       </c>
       <c r="H24">
-        <v>-0.0002352770644908727</v>
+        <v>0.002486521379822746</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>59066</v>
+        <v>50023</v>
       </c>
       <c r="C25">
-        <v>6530.964963543873</v>
+        <v>12208.43290059267</v>
       </c>
       <c r="D25">
-        <v>-574.1386323160891</v>
+        <v>40205.1141829905</v>
       </c>
       <c r="E25">
-        <v>-0.06720120602104421</v>
+        <v>3.288528981188531</v>
       </c>
       <c r="F25">
-        <v>0.6810549932233834</v>
+        <v>-2.942020840723945</v>
       </c>
       <c r="G25">
-        <v>7.775691011932439</v>
+        <v>0.9088941955712201</v>
       </c>
       <c r="H25">
-        <v>0.0002609970384367492</v>
+        <v>0.002535342258761858</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59067</v>
+        <v>50024</v>
       </c>
       <c r="C26">
-        <v>-3967.151426771611</v>
+        <v>9966.131564188983</v>
       </c>
       <c r="D26">
-        <v>5214.540485880633</v>
+        <v>40833.05397212109</v>
       </c>
       <c r="E26">
-        <v>0.18291340682282</v>
+        <v>5.300190925617299</v>
       </c>
       <c r="F26">
-        <v>-6.214631054310028</v>
+        <v>-2.986815326495279</v>
       </c>
       <c r="G26">
-        <v>-4.722884817786283</v>
+        <v>0.7444465353017139</v>
       </c>
       <c r="H26">
-        <v>-0.0001306922044324503</v>
+        <v>0.002565810271959216</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59068</v>
+        <v>50025</v>
       </c>
       <c r="C27">
-        <v>311.6314539594177</v>
+        <v>7692.093054949226</v>
       </c>
       <c r="D27">
-        <v>-6533.633292210346</v>
+        <v>41336.01147291372</v>
       </c>
       <c r="E27">
-        <v>-0.1986808402837371</v>
+        <v>7.863968727774512</v>
       </c>
       <c r="F27">
-        <v>7.802337268679119</v>
+        <v>-3.022435002781759</v>
       </c>
       <c r="G27">
-        <v>0.3747948277903043</v>
+        <v>0.5777894904505199</v>
       </c>
       <c r="H27">
-        <v>1.436759973134511e-05</v>
+        <v>0.00258734213552943</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59069</v>
+        <v>50026</v>
       </c>
       <c r="C28">
-        <v>611.6208273530946</v>
+        <v>5393.228450765397</v>
       </c>
       <c r="D28">
-        <v>6469.457453207604</v>
+        <v>41712.36899429158</v>
       </c>
       <c r="E28">
-        <v>0.18722333270282</v>
+        <v>10.90890397729981</v>
       </c>
       <c r="F28">
-        <v>-7.803426421739022</v>
+        <v>-3.048774997563304</v>
       </c>
       <c r="G28">
-        <v>0.7350363482428494</v>
+        <v>0.4094264396254039</v>
       </c>
       <c r="H28">
-        <v>-1.304008177235981e-05</v>
+        <v>0.002607796348827178</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,8839 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>59069.00072133668</v>
+        <v>50027</v>
       </c>
       <c r="C29">
-        <v>124.0187218467888</v>
+        <v>3076.57254154665</v>
       </c>
       <c r="D29">
-        <v>6496.95288384242</v>
+        <v>41960.89825493226</v>
       </c>
       <c r="E29">
-        <v>0.1858812799309426</v>
+        <v>14.31759966309874</v>
       </c>
       <c r="F29">
-        <v>-7.836662490917125</v>
+        <v>-3.065755313768039</v>
       </c>
       <c r="G29">
-        <v>0.1468875792383983</v>
+        <v>0.2398688438251675</v>
       </c>
       <c r="H29">
-        <v>-3.000691186966636e-05</v>
+        <v>0.002632423914733411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>50028</v>
+      </c>
+      <c r="C30">
+        <v>749.2619096362083</v>
+      </c>
+      <c r="D30">
+        <v>42080.77327449766</v>
+      </c>
+      <c r="E30">
+        <v>17.94927028355636</v>
+      </c>
+      <c r="F30">
+        <v>-3.073322307279361</v>
+      </c>
+      <c r="G30">
+        <v>0.06963609142871439</v>
+      </c>
+      <c r="H30">
+        <v>0.00266344822691261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>50029</v>
+      </c>
+      <c r="C31">
+        <v>-1581.496239750604</v>
+      </c>
+      <c r="D31">
+        <v>42071.57770658177</v>
+      </c>
+      <c r="E31">
+        <v>21.6622228564432</v>
+      </c>
+      <c r="F31">
+        <v>-3.071450716214293</v>
+      </c>
+      <c r="G31">
+        <v>-0.1007458063556178</v>
+      </c>
+      <c r="H31">
+        <v>0.002700202604372691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>50030</v>
+      </c>
+      <c r="C32">
+        <v>-3908.45780089071</v>
+      </c>
+      <c r="D32">
+        <v>41933.30654701742</v>
+      </c>
+      <c r="E32">
+        <v>25.33190065453486</v>
+      </c>
+      <c r="F32">
+        <v>-3.06014564905408</v>
+      </c>
+      <c r="G32">
+        <v>-0.2707465582999136</v>
+      </c>
+      <c r="H32">
+        <v>0.002739666535857091</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50031</v>
+      </c>
+      <c r="C33">
+        <v>-6224.373682495915</v>
+      </c>
+      <c r="D33">
+        <v>41666.36482733314</v>
+      </c>
+      <c r="E33">
+        <v>28.86229655251204</v>
+      </c>
+      <c r="F33">
+        <v>-3.039444008941299</v>
+      </c>
+      <c r="G33">
+        <v>-0.4398346312652391</v>
+      </c>
+      <c r="H33">
+        <v>0.002777193700067456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>50032</v>
+      </c>
+      <c r="C34">
+        <v>-8522.018828412074</v>
+      </c>
+      <c r="D34">
+        <v>41271.56592792719</v>
+      </c>
+      <c r="E34">
+        <v>32.19064951540957</v>
+      </c>
+      <c r="F34">
+        <v>-3.009415081759252</v>
+      </c>
+      <c r="G34">
+        <v>-0.607480537647605</v>
+      </c>
+      <c r="H34">
+        <v>0.002807237397786481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>50033</v>
+      </c>
+      <c r="C35">
+        <v>-10794.21939054135</v>
+      </c>
+      <c r="D35">
+        <v>40750.13049204444</v>
+      </c>
+      <c r="E35">
+        <v>35.28706010831521</v>
+      </c>
+      <c r="F35">
+        <v>-2.970160305949251</v>
+      </c>
+      <c r="G35">
+        <v>-0.7731599822038447</v>
+      </c>
+      <c r="H35">
+        <v>0.002823942202905421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>50034</v>
+      </c>
+      <c r="C36">
+        <v>-13033.87952466606</v>
+      </c>
+      <c r="D36">
+        <v>40103.68523228711</v>
+      </c>
+      <c r="E36">
+        <v>38.15147227846725</v>
+      </c>
+      <c r="F36">
+        <v>-2.921812436181702</v>
+      </c>
+      <c r="G36">
+        <v>-0.9363566400627276</v>
+      </c>
+      <c r="H36">
+        <v>0.002821554813358675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>50035</v>
+      </c>
+      <c r="C37">
+        <v>-15234.00873836639</v>
+      </c>
+      <c r="D37">
+        <v>39334.26014386459</v>
+      </c>
+      <c r="E37">
+        <v>40.8103360566296</v>
+      </c>
+      <c r="F37">
+        <v>-2.864534359219086</v>
+      </c>
+      <c r="G37">
+        <v>-1.096564519914021</v>
+      </c>
+      <c r="H37">
+        <v>0.002794685083106072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>50036</v>
+      </c>
+      <c r="C38">
+        <v>-17387.7500810869</v>
+      </c>
+      <c r="D38">
+        <v>38444.28271584748</v>
+      </c>
+      <c r="E38">
+        <v>43.31445726736988</v>
+      </c>
+      <c r="F38">
+        <v>-2.798517752595543</v>
+      </c>
+      <c r="G38">
+        <v>-1.253290000014074</v>
+      </c>
+      <c r="H38">
+        <v>0.002738506852107216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>50037</v>
+      </c>
+      <c r="C39">
+        <v>-19488.40910588755</v>
+      </c>
+      <c r="D39">
+        <v>37436.56814426644</v>
+      </c>
+      <c r="E39">
+        <v>45.73831330574486</v>
+      </c>
+      <c r="F39">
+        <v>-2.723981661213395</v>
+      </c>
+      <c r="G39">
+        <v>-1.406053686685434</v>
+      </c>
+      <c r="H39">
+        <v>0.002649024856217013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>50038</v>
+      </c>
+      <c r="C40">
+        <v>-21529.48325085318</v>
+      </c>
+      <c r="D40">
+        <v>36314.30494267371</v>
+      </c>
+      <c r="E40">
+        <v>48.1795463256746</v>
+      </c>
+      <c r="F40">
+        <v>-2.641170956019073</v>
+      </c>
+      <c r="G40">
+        <v>-1.554392239190416</v>
+      </c>
+      <c r="H40">
+        <v>0.002523544183045736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>50039</v>
+      </c>
+      <c r="C41">
+        <v>-23504.69054457546</v>
+      </c>
+      <c r="D41">
+        <v>35081.03586125158</v>
+      </c>
+      <c r="E41">
+        <v>50.75544383734952</v>
+      </c>
+      <c r="F41">
+        <v>-2.550354567026138</v>
+      </c>
+      <c r="G41">
+        <v>-1.697860225546913</v>
+      </c>
+      <c r="H41">
+        <v>0.002361441031090081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>50040</v>
+      </c>
+      <c r="C42">
+        <v>-25407.99491085733</v>
+      </c>
+      <c r="D42">
+        <v>33740.6352916958</v>
+      </c>
+      <c r="E42">
+        <v>53.59137683674377</v>
+      </c>
+      <c r="F42">
+        <v>-2.451823393731696</v>
+      </c>
+      <c r="G42">
+        <v>-1.836031892246536</v>
+      </c>
+      <c r="H42">
+        <v>0.002165201249091598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>50041</v>
+      </c>
+      <c r="C43">
+        <v>-27233.62303452965</v>
+      </c>
+      <c r="D43">
+        <v>32297.28715725349</v>
+      </c>
+      <c r="E43">
+        <v>56.79591181585887</v>
+      </c>
+      <c r="F43">
+        <v>-2.345887978980175</v>
+      </c>
+      <c r="G43">
+        <v>-1.968502422341591</v>
+      </c>
+      <c r="H43">
+        <v>0.00194141522834956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>50042</v>
+      </c>
+      <c r="C44">
+        <v>-28976.06676101929</v>
+      </c>
+      <c r="D44">
+        <v>30755.47139609359</v>
+      </c>
+      <c r="E44">
+        <v>60.42159807059602</v>
+      </c>
+      <c r="F44">
+        <v>-2.232876469623043</v>
+      </c>
+      <c r="G44">
+        <v>-2.094887947020921</v>
+      </c>
+      <c r="H44">
+        <v>0.001701026583446452</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>50043</v>
+      </c>
+      <c r="C45">
+        <v>-30630.06952435493</v>
+      </c>
+      <c r="D45">
+        <v>29119.96900025652</v>
+      </c>
+      <c r="E45">
+        <v>64.42156881128233</v>
+      </c>
+      <c r="F45">
+        <v>-2.113133906594102</v>
+      </c>
+      <c r="G45">
+        <v>-2.214823702682051</v>
+      </c>
+      <c r="H45">
+        <v>0.001457895356649064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>50044</v>
+      </c>
+      <c r="C46">
+        <v>-32190.6083909752</v>
+      </c>
+      <c r="D46">
+        <v>27395.88765846239</v>
+      </c>
+      <c r="E46">
+        <v>68.62602209754746</v>
+      </c>
+      <c r="F46">
+        <v>-1.987023763764592</v>
+      </c>
+      <c r="G46">
+        <v>-2.327960834834916</v>
+      </c>
+      <c r="H46">
+        <v>0.001225180245592783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>50045</v>
+      </c>
+      <c r="C47">
+        <v>-33652.89764068564</v>
+      </c>
+      <c r="D47">
+        <v>25588.68881110414</v>
+      </c>
+      <c r="E47">
+        <v>72.76507055524053</v>
+      </c>
+      <c r="F47">
+        <v>-1.854931114293294</v>
+      </c>
+      <c r="G47">
+        <v>-2.433964105113694</v>
+      </c>
+      <c r="H47">
+        <v>0.001010460472161595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>50046</v>
+      </c>
+      <c r="C48">
+        <v>-35012.43502482468</v>
+      </c>
+      <c r="D48">
+        <v>23704.17791499093</v>
+      </c>
+      <c r="E48">
+        <v>76.54196925224559</v>
+      </c>
+      <c r="F48">
+        <v>-1.717264655506424</v>
+      </c>
+      <c r="G48">
+        <v>-2.532513262475733</v>
+      </c>
+      <c r="H48">
+        <v>0.0008120848776123665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>50047</v>
+      </c>
+      <c r="C49">
+        <v>-36265.07841998493</v>
+      </c>
+      <c r="D49">
+        <v>21748.43296104317</v>
+      </c>
+      <c r="E49">
+        <v>79.72433222194111</v>
+      </c>
+      <c r="F49">
+        <v>-1.57445474018177</v>
+      </c>
+      <c r="G49">
+        <v>-2.62330851798785</v>
+      </c>
+      <c r="H49">
+        <v>0.0006191938770871806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>50048</v>
+      </c>
+      <c r="C50">
+        <v>-37407.10814353696</v>
+      </c>
+      <c r="D50">
+        <v>19727.6935859087</v>
+      </c>
+      <c r="E50">
+        <v>82.20528096372159</v>
+      </c>
+      <c r="F50">
+        <v>-1.426947578153483</v>
+      </c>
+      <c r="G50">
+        <v>-2.706077177381934</v>
+      </c>
+      <c r="H50">
+        <v>0.0004156234535361751</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>50049</v>
+      </c>
+      <c r="C51">
+        <v>-38435.23874734151</v>
+      </c>
+      <c r="D51">
+        <v>17648.26745457983</v>
+      </c>
+      <c r="E51">
+        <v>84.00907183299063</v>
+      </c>
+      <c r="F51">
+        <v>-1.275198821449492</v>
+      </c>
+      <c r="G51">
+        <v>-2.780577709022608</v>
+      </c>
+      <c r="H51">
+        <v>0.0001854048436029343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50050</v>
+      </c>
+      <c r="C52">
+        <v>-39346.5850539942</v>
+      </c>
+      <c r="D52">
+        <v>15516.49422265304</v>
+      </c>
+      <c r="E52">
+        <v>85.25272804214808</v>
+      </c>
+      <c r="F52">
+        <v>-1.119669609962027</v>
+      </c>
+      <c r="G52">
+        <v>-2.846599956549547</v>
+      </c>
+      <c r="H52">
+        <v>-8.290313116716107e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>50051</v>
+      </c>
+      <c r="C53">
+        <v>-40138.61533958947</v>
+      </c>
+      <c r="D53">
+        <v>13338.7633435408</v>
+      </c>
+      <c r="E53">
+        <v>86.0933563727978</v>
+      </c>
+      <c r="F53">
+        <v>-0.960825713261665</v>
+      </c>
+      <c r="G53">
+        <v>-2.903962890023772</v>
+      </c>
+      <c r="H53">
+        <v>-0.000394354490400842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>50052</v>
+      </c>
+      <c r="C54">
+        <v>-40809.12022675176</v>
+      </c>
+      <c r="D54">
+        <v>11121.55509345723</v>
+      </c>
+      <c r="E54">
+        <v>86.68443370843052</v>
+      </c>
+      <c r="F54">
+        <v>-0.7991385035578391</v>
+      </c>
+      <c r="G54">
+        <v>-2.952512002794524</v>
+      </c>
+      <c r="H54">
+        <v>-0.0007478997617846344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>50053</v>
+      </c>
+      <c r="C55">
+        <v>-41356.20640729919</v>
+      </c>
+      <c r="D55">
+        <v>8871.476390161701</v>
+      </c>
+      <c r="E55">
+        <v>87.14920750764392</v>
+      </c>
+      <c r="F55">
+        <v>-0.6350862274631367</v>
+      </c>
+      <c r="G55">
+        <v>-2.992117629100243</v>
+      </c>
+      <c r="H55">
+        <v>-0.001137808328081512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>50054</v>
+      </c>
+      <c r="C56">
+        <v>-41778.31004629963</v>
+      </c>
+      <c r="D56">
+        <v>6595.27767003094</v>
+      </c>
+      <c r="E56">
+        <v>87.56895229901515</v>
+      </c>
+      <c r="F56">
+        <v>-0.4691546650820073</v>
+      </c>
+      <c r="G56">
+        <v>-3.022674429798696</v>
+      </c>
+      <c r="H56">
+        <v>-0.001555384362834471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>50055</v>
+      </c>
+      <c r="C57">
+        <v>-42074.22034821491</v>
+      </c>
+      <c r="D57">
+        <v>4299.848770600965</v>
+      </c>
+      <c r="E57">
+        <v>87.9807597379305</v>
+      </c>
+      <c r="F57">
+        <v>-0.3018368865230997</v>
+      </c>
+      <c r="G57">
+        <v>-3.044101740288483</v>
+      </c>
+      <c r="H57">
+        <v>-0.001990544936813182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>50056</v>
+      </c>
+      <c r="C58">
+        <v>-42243.10487158703</v>
+      </c>
+      <c r="D58">
+        <v>1992.196873994291</v>
+      </c>
+      <c r="E58">
+        <v>88.38062479731768</v>
+      </c>
+      <c r="F58">
+        <v>-0.1336321440432164</v>
+      </c>
+      <c r="G58">
+        <v>-3.056344353864232</v>
+      </c>
+      <c r="H58">
+        <v>-0.002433130889944403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>50057</v>
+      </c>
+      <c r="C59">
+        <v>-42284.53052244701</v>
+      </c>
+      <c r="D59">
+        <v>-320.5890149536577</v>
+      </c>
+      <c r="E59">
+        <v>88.72953400107262</v>
+      </c>
+      <c r="F59">
+        <v>0.03495594082905758</v>
+      </c>
+      <c r="G59">
+        <v>-3.059373386805004</v>
+      </c>
+      <c r="H59">
+        <v>-0.002873942475522757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>50058</v>
+      </c>
+      <c r="C60">
+        <v>-42198.47634103325</v>
+      </c>
+      <c r="D60">
+        <v>-2631.381986360026</v>
+      </c>
+      <c r="E60">
+        <v>88.96149576735321</v>
+      </c>
+      <c r="F60">
+        <v>0.2034216868218604</v>
+      </c>
+      <c r="G60">
+        <v>-3.053186983838684</v>
+      </c>
+      <c r="H60">
+        <v>-0.003305503354669413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>50059</v>
+      </c>
+      <c r="C61">
+        <v>-41985.33635532693</v>
+      </c>
+      <c r="D61">
+        <v>-4933.063899285175</v>
+      </c>
+      <c r="E61">
+        <v>88.99277508417498</v>
+      </c>
+      <c r="F61">
+        <v>0.3712599176825654</v>
+      </c>
+      <c r="G61">
+        <v>-3.037810724040255</v>
+      </c>
+      <c r="H61">
+        <v>-0.003722542485944167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>50060</v>
+      </c>
+      <c r="C62">
+        <v>-41645.91302635997</v>
+      </c>
+      <c r="D62">
+        <v>-7218.569251187643</v>
+      </c>
+      <c r="E62">
+        <v>88.73143347129823</v>
+      </c>
+      <c r="F62">
+        <v>0.5379685361348957</v>
+      </c>
+      <c r="G62">
+        <v>-3.013297671780782</v>
+      </c>
+      <c r="H62">
+        <v>-0.004122191218276283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>50061</v>
+      </c>
+      <c r="C63">
+        <v>-41181.40371773433</v>
+      </c>
+      <c r="D63">
+        <v>-9480.921986299294</v>
+      </c>
+      <c r="E63">
+        <v>88.08615653766829</v>
+      </c>
+      <c r="F63">
+        <v>0.7030509044546031</v>
+      </c>
+      <c r="G63">
+        <v>-2.979728082532231</v>
+      </c>
+      <c r="H63">
+        <v>-0.004503927653560851</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>50062</v>
+      </c>
+      <c r="C64">
+        <v>-40593.38359288729</v>
+      </c>
+      <c r="D64">
+        <v>-11713.26329572656</v>
+      </c>
+      <c r="E64">
+        <v>86.97359268533737</v>
+      </c>
+      <c r="F64">
+        <v>0.8660179139473047</v>
+      </c>
+      <c r="G64">
+        <v>-2.937208811539045</v>
+      </c>
+      <c r="H64">
+        <v>-0.004869340405713986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>50063</v>
+      </c>
+      <c r="C65">
+        <v>-39883.78820472219</v>
+      </c>
+      <c r="D65">
+        <v>-13908.87085912756</v>
+      </c>
+      <c r="E65">
+        <v>85.32403815892002</v>
+      </c>
+      <c r="F65">
+        <v>1.026389713906847</v>
+      </c>
+      <c r="G65">
+        <v>-2.885872480169476</v>
+      </c>
+      <c r="H65">
+        <v>-0.005221802446957255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>50064</v>
+      </c>
+      <c r="C66">
+        <v>-39054.89820452211</v>
+      </c>
+      <c r="D66">
+        <v>-16061.17161676759</v>
+      </c>
+      <c r="E66">
+        <v>83.08606749644214</v>
+      </c>
+      <c r="F66">
+        <v>1.183697119293454</v>
+      </c>
+      <c r="G66">
+        <v>-2.825876436436971</v>
+      </c>
+      <c r="H66">
+        <v>-0.00556612718649865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>50065</v>
+      </c>
+      <c r="C67">
+        <v>-38109.32770836462</v>
+      </c>
+      <c r="D67">
+        <v>-18163.75082578965</v>
+      </c>
+      <c r="E67">
+        <v>80.23132263266461</v>
+      </c>
+      <c r="F67">
+        <v>1.337482698327703</v>
+      </c>
+      <c r="G67">
+        <v>-2.757401521752388</v>
+      </c>
+      <c r="H67">
+        <v>-0.005908223071663863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>50066</v>
+      </c>
+      <c r="C68">
+        <v>-37050.01728018907</v>
+      </c>
+      <c r="D68">
+        <v>-20210.36029563168</v>
+      </c>
+      <c r="E68">
+        <v>76.76082485086846</v>
+      </c>
+      <c r="F68">
+        <v>1.487301456312282</v>
+      </c>
+      <c r="G68">
+        <v>-2.680650657569064</v>
+      </c>
+      <c r="H68">
+        <v>-0.006254681276331618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>50067</v>
+      </c>
+      <c r="C69">
+        <v>-35880.2318799006</v>
+      </c>
+      <c r="D69">
+        <v>-22194.92898631649</v>
+      </c>
+      <c r="E69">
+        <v>72.71348523276596</v>
+      </c>
+      <c r="F69">
+        <v>1.632720920845297</v>
+      </c>
+      <c r="G69">
+        <v>-2.595847339944614</v>
+      </c>
+      <c r="H69">
+        <v>-0.00661214594273592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>50068</v>
+      </c>
+      <c r="C70">
+        <v>-34603.56236221917</v>
+      </c>
+      <c r="D70">
+        <v>-24111.57967980054</v>
+      </c>
+      <c r="E70">
+        <v>68.17547739137126</v>
+      </c>
+      <c r="F70">
+        <v>1.773320408027216</v>
+      </c>
+      <c r="G70">
+        <v>-2.503234328190091</v>
+      </c>
+      <c r="H70">
+        <v>-0.00698627241489403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>50069</v>
+      </c>
+      <c r="C71">
+        <v>-33223.92499243275</v>
+      </c>
+      <c r="D71">
+        <v>-25954.65473409751</v>
+      </c>
+      <c r="E71">
+        <v>63.28552021353011</v>
+      </c>
+      <c r="F71">
+        <v>1.908689524583105</v>
+      </c>
+      <c r="G71">
+        <v>-2.403073126321932</v>
+      </c>
+      <c r="H71">
+        <v>-0.007380155456752818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>50070</v>
+      </c>
+      <c r="C72">
+        <v>-31745.54816071162</v>
+      </c>
+      <c r="D72">
+        <v>-27718.74858207463</v>
+      </c>
+      <c r="E72">
+        <v>58.22689796354959</v>
+      </c>
+      <c r="F72">
+        <v>2.0384267442441</v>
+      </c>
+      <c r="G72">
+        <v>-2.295645061314668</v>
+      </c>
+      <c r="H72">
+        <v>-0.00779239605278763</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>50071</v>
+      </c>
+      <c r="C73">
+        <v>-30172.93620641004</v>
+      </c>
+      <c r="D73">
+        <v>-29398.73260277283</v>
+      </c>
+      <c r="E73">
+        <v>53.19599868774419</v>
+      </c>
+      <c r="F73">
+        <v>2.162139927263257</v>
+      </c>
+      <c r="G73">
+        <v>-2.181254311531556</v>
+      </c>
+      <c r="H73">
+        <v>-0.008215459142970435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>50072</v>
+      </c>
+      <c r="C74">
+        <v>-28510.81736735996</v>
+      </c>
+      <c r="D74">
+        <v>-30989.74798702503</v>
+      </c>
+      <c r="E74">
+        <v>48.34525596093011</v>
+      </c>
+      <c r="F74">
+        <v>2.279450645783851</v>
+      </c>
+      <c r="G74">
+        <v>-2.060231662077847</v>
+      </c>
+      <c r="H74">
+        <v>-0.00863539573758499</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>50073</v>
+      </c>
+      <c r="C75">
+        <v>-26764.11034737364</v>
+      </c>
+      <c r="D75">
+        <v>-32487.15723302103</v>
+      </c>
+      <c r="E75">
+        <v>43.71756177474864</v>
+      </c>
+      <c r="F75">
+        <v>2.390001664595653</v>
+      </c>
+      <c r="G75">
+        <v>-1.932935865219501</v>
+      </c>
+      <c r="H75">
+        <v>-0.009033904845497463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>50074</v>
+      </c>
+      <c r="C76">
+        <v>-24937.94350514778</v>
+      </c>
+      <c r="D76">
+        <v>-33886.49245926299</v>
+      </c>
+      <c r="E76">
+        <v>39.2081879073266</v>
+      </c>
+      <c r="F76">
+        <v>2.493463250852551</v>
+      </c>
+      <c r="G76">
+        <v>-1.79974970565871</v>
+      </c>
+      <c r="H76">
+        <v>-0.009392782492412084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>50075</v>
+      </c>
+      <c r="C77">
+        <v>-23037.70658783838</v>
+      </c>
+      <c r="D77">
+        <v>-35183.46796058247</v>
+      </c>
+      <c r="E77">
+        <v>34.5869226850358</v>
+      </c>
+      <c r="F77">
+        <v>2.58953382535107</v>
+      </c>
+      <c r="G77">
+        <v>-1.661071458146707</v>
+      </c>
+      <c r="H77">
+        <v>-0.009699262967913772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>50076</v>
+      </c>
+      <c r="C78">
+        <v>-21069.06590798264</v>
+      </c>
+      <c r="D78">
+        <v>-36374.07338660506</v>
+      </c>
+      <c r="E78">
+        <v>29.57840846925091</v>
+      </c>
+      <c r="F78">
+        <v>2.677935296883335</v>
+      </c>
+      <c r="G78">
+        <v>-1.517306381927109</v>
+      </c>
+      <c r="H78">
+        <v>-0.009949617500866859</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>50077</v>
+      </c>
+      <c r="C79">
+        <v>-19037.90921020406</v>
+      </c>
+      <c r="D79">
+        <v>-37454.67785199463</v>
+      </c>
+      <c r="E79">
+        <v>23.95805678657395</v>
+      </c>
+      <c r="F79">
+        <v>2.758407642244619</v>
+      </c>
+      <c r="G79">
+        <v>-1.368862950157208</v>
+      </c>
+      <c r="H79">
+        <v>-0.01014903368222442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>50078</v>
+      </c>
+      <c r="C80">
+        <v>-16950.26470537431</v>
+      </c>
+      <c r="D80">
+        <v>-38422.06694757909</v>
+      </c>
+      <c r="E80">
+        <v>17.61359922489604</v>
+      </c>
+      <c r="F80">
+        <v>2.830706373943104</v>
+      </c>
+      <c r="G80">
+        <v>-1.216154719431942</v>
+      </c>
+      <c r="H80">
+        <v>-0.01030818661142285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>50079</v>
+      </c>
+      <c r="C81">
+        <v>-14812.25580081011</v>
+      </c>
+      <c r="D81">
+        <v>-39273.40768808014</v>
+      </c>
+      <c r="E81">
+        <v>10.55308930158851</v>
+      </c>
+      <c r="F81">
+        <v>2.894603130903761</v>
+      </c>
+      <c r="G81">
+        <v>-1.059605101814828</v>
+      </c>
+      <c r="H81">
+        <v>-0.01043882979601359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>50080</v>
+      </c>
+      <c r="C82">
+        <v>-12630.10550886226</v>
+      </c>
+      <c r="D82">
+        <v>-40006.19198347997</v>
+      </c>
+      <c r="E82">
+        <v>2.874968075729428</v>
+      </c>
+      <c r="F82">
+        <v>2.949887834379578</v>
+      </c>
+      <c r="G82">
+        <v>-0.899651666487719</v>
+      </c>
+      <c r="H82">
+        <v>-0.01055054996884742</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>50081</v>
+      </c>
+      <c r="C83">
+        <v>-10410.16418214387</v>
+      </c>
+      <c r="D83">
+        <v>-40618.20210417688</v>
+      </c>
+      <c r="E83">
+        <v>-5.272907826402837</v>
+      </c>
+      <c r="F83">
+        <v>2.996371077937031</v>
+      </c>
+      <c r="G83">
+        <v>-0.7367482574155793</v>
+      </c>
+      <c r="H83">
+        <v>-0.01064936488065641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>50082</v>
+      </c>
+      <c r="C84">
+        <v>-8158.932074374737</v>
+      </c>
+      <c r="D84">
+        <v>-41107.50846254795</v>
+      </c>
+      <c r="E84">
+        <v>-13.72730546212595</v>
+      </c>
+      <c r="F84">
+        <v>3.033886196848814</v>
+      </c>
+      <c r="G84">
+        <v>-0.5713649753906731</v>
+      </c>
+      <c r="H84">
+        <v>-0.01073769750595846</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>50083</v>
+      </c>
+      <c r="C85">
+        <v>-5883.064312650486</v>
+      </c>
+      <c r="D85">
+        <v>-41472.48925328659</v>
+      </c>
+      <c r="E85">
+        <v>-22.33157417942803</v>
+      </c>
+      <c r="F85">
+        <v>3.062290951285529</v>
+      </c>
+      <c r="G85">
+        <v>-0.4039868156246185</v>
+      </c>
+      <c r="H85">
+        <v>-0.01081497951537665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>50084</v>
+      </c>
+      <c r="C86">
+        <v>-3589.358374228278</v>
+      </c>
+      <c r="D86">
+        <v>-41711.85827863599</v>
+      </c>
+      <c r="E86">
+        <v>-30.94782458309456</v>
+      </c>
+      <c r="F86">
+        <v>3.08146891658843</v>
+      </c>
+      <c r="G86">
+        <v>-0.235111669698305</v>
+      </c>
+      <c r="H86">
+        <v>-0.01087836745711528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>50085</v>
+      </c>
+      <c r="C87">
+        <v>-1284.728582733833</v>
+      </c>
+      <c r="D87">
+        <v>-41824.69156712807</v>
+      </c>
+      <c r="E87">
+        <v>-39.46343218288387</v>
+      </c>
+      <c r="F87">
+        <v>3.091330667790788</v>
+      </c>
+      <c r="G87">
+        <v>-0.0652480733067827</v>
+      </c>
+      <c r="H87">
+        <v>-0.01092336129053217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>50086</v>
+      </c>
+      <c r="C88">
+        <v>1023.828612568166</v>
+      </c>
+      <c r="D88">
+        <v>-41810.44785329564</v>
+      </c>
+      <c r="E88">
+        <v>-47.79486568393803</v>
+      </c>
+      <c r="F88">
+        <v>3.09181479081908</v>
+      </c>
+      <c r="G88">
+        <v>0.1050872294871056</v>
+      </c>
+      <c r="H88">
+        <v>-0.01094431673663744</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>50087</v>
+      </c>
+      <c r="C89">
+        <v>3329.274884518629</v>
+      </c>
+      <c r="D89">
+        <v>-41668.98036623385</v>
+      </c>
+      <c r="E89">
+        <v>-55.89015932901029</v>
+      </c>
+      <c r="F89">
+        <v>3.082888689528632</v>
+      </c>
+      <c r="G89">
+        <v>0.2753718839440222</v>
+      </c>
+      <c r="H89">
+        <v>-0.01093491354868526</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>50088</v>
+      </c>
+      <c r="C90">
+        <v>5624.572545861632</v>
+      </c>
+      <c r="D90">
+        <v>-41400.53888670515</v>
+      </c>
+      <c r="E90">
+        <v>-63.73001540648104</v>
+      </c>
+      <c r="F90">
+        <v>3.064549127465939</v>
+      </c>
+      <c r="G90">
+        <v>0.4450806777569444</v>
+      </c>
+      <c r="H90">
+        <v>-0.01088864290458854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>50089</v>
+      </c>
+      <c r="C91">
+        <v>7902.725229395843</v>
+      </c>
+      <c r="D91">
+        <v>-41005.76231780402</v>
+      </c>
+      <c r="E91">
+        <v>-71.32695180144374</v>
+      </c>
+      <c r="F91">
+        <v>3.03682244545023</v>
+      </c>
+      <c r="G91">
+        <v>0.613688338707631</v>
+      </c>
+      <c r="H91">
+        <v>-0.0107993363517139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>50090</v>
+      </c>
+      <c r="C92">
+        <v>10156.81245459176</v>
+      </c>
+      <c r="D92">
+        <v>-40485.66360040372</v>
+      </c>
+      <c r="E92">
+        <v>-78.72200989551406</v>
+      </c>
+      <c r="F92">
+        <v>2.9997644407035</v>
+      </c>
+      <c r="G92">
+        <v>0.7806721941071293</v>
+      </c>
+      <c r="H92">
+        <v>-0.01066171658545394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>50091</v>
+      </c>
+      <c r="C93">
+        <v>12380.01472096906</v>
+      </c>
+      <c r="D93">
+        <v>-39841.61024690123</v>
+      </c>
+      <c r="E93">
+        <v>-85.979037681075</v>
+      </c>
+      <c r="F93">
+        <v>2.953459960816171</v>
+      </c>
+      <c r="G93">
+        <v>0.945514500614279</v>
+      </c>
+      <c r="H93">
+        <v>-0.01047192683295781</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>50092</v>
+      </c>
+      <c r="C94">
+        <v>14565.62764061343</v>
+      </c>
+      <c r="D94">
+        <v>-39075.30450535983</v>
+      </c>
+      <c r="E94">
+        <v>-93.17704692508752</v>
+      </c>
+      <c r="F94">
+        <v>2.898022328473057</v>
+      </c>
+      <c r="G94">
+        <v>1.107704318707083</v>
+      </c>
+      <c r="H94">
+        <v>-0.01022799940531048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>50093</v>
+      </c>
+      <c r="C95">
+        <v>16707.06559185828</v>
+      </c>
+      <c r="D95">
+        <v>-38188.76706103129</v>
+      </c>
+      <c r="E95">
+        <v>-100.4012368048941</v>
+      </c>
+      <c r="F95">
+        <v>2.833592746161288</v>
+      </c>
+      <c r="G95">
+        <v>1.266738908780561</v>
+      </c>
+      <c r="H95">
+        <v>-0.009930246107168183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>50094</v>
+      </c>
+      <c r="C96">
+        <v>18797.85655126048</v>
+      </c>
+      <c r="D96">
+        <v>-37184.32776246531</v>
+      </c>
+      <c r="E96">
+        <v>-107.7328332955056</v>
+      </c>
+      <c r="F96">
+        <v>2.760339827616128</v>
+      </c>
+      <c r="G96">
+        <v>1.422124703888196</v>
+      </c>
+      <c r="H96">
+        <v>-0.009581569173944348</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>50095</v>
+      </c>
+      <c r="C97">
+        <v>20831.63007104842</v>
+      </c>
+      <c r="D97">
+        <v>-36064.62694043682</v>
+      </c>
+      <c r="E97">
+        <v>-115.2371140765271</v>
+      </c>
+      <c r="F97">
+        <v>2.678459373170575</v>
+      </c>
+      <c r="G97">
+        <v>1.573377924204021</v>
+      </c>
+      <c r="H97">
+        <v>-0.009187669536590108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>50096</v>
+      </c>
+      <c r="C98">
+        <v>22802.10093080783</v>
+      </c>
+      <c r="D98">
+        <v>-34832.63169889314</v>
+      </c>
+      <c r="E98">
+        <v>-122.9484544525956</v>
+      </c>
+      <c r="F98">
+        <v>2.588174454320789</v>
+      </c>
+      <c r="G98">
+        <v>1.720024843445907</v>
+      </c>
+      <c r="H98">
+        <v>-0.008757043931682494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>50097</v>
+      </c>
+      <c r="C99">
+        <v>24703.05382307481</v>
+      </c>
+      <c r="D99">
+        <v>-33491.67163748085</v>
+      </c>
+      <c r="E99">
+        <v>-130.8518945027346</v>
+      </c>
+      <c r="F99">
+        <v>2.489735776146933</v>
+      </c>
+      <c r="G99">
+        <v>1.86160166144567</v>
+      </c>
+      <c r="H99">
+        <v>-0.008300516998371397</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>50098</v>
+      </c>
+      <c r="C100">
+        <v>26528.34092660256</v>
+      </c>
+      <c r="D100">
+        <v>-32045.49398826963</v>
+      </c>
+      <c r="E100">
+        <v>-138.8637132024038</v>
+      </c>
+      <c r="F100">
+        <v>2.383422102580709</v>
+      </c>
+      <c r="G100">
+        <v>1.997653989707245</v>
+      </c>
+      <c r="H100">
+        <v>-0.007829923539980597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>50099</v>
+      </c>
+      <c r="C101">
+        <v>28271.91187905088</v>
+      </c>
+      <c r="D101">
+        <v>-30498.3244465084</v>
+      </c>
+      <c r="E101">
+        <v>-146.819137959378</v>
+      </c>
+      <c r="F101">
+        <v>2.269540281565772</v>
+      </c>
+      <c r="G101">
+        <v>2.127736225049543</v>
+      </c>
+      <c r="H101">
+        <v>-0.00735563239849865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>50100</v>
+      </c>
+      <c r="C102">
+        <v>29927.89435975736</v>
+      </c>
+      <c r="D102">
+        <v>-28854.89845503051</v>
+      </c>
+      <c r="E102">
+        <v>-154.481007601753</v>
+      </c>
+      <c r="F102">
+        <v>2.148424336237966</v>
+      </c>
+      <c r="G102">
+        <v>2.251411554071672</v>
+      </c>
+      <c r="H102">
+        <v>-0.006883146397507923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>50101</v>
+      </c>
+      <c r="C103">
+        <v>31490.71923378568</v>
+      </c>
+      <c r="D103">
+        <v>-27120.4164866087</v>
+      </c>
+      <c r="E103">
+        <v>-161.5817304611949</v>
+      </c>
+      <c r="F103">
+        <v>2.020433614008966</v>
+      </c>
+      <c r="G103">
+        <v>2.368253724678414</v>
+      </c>
+      <c r="H103">
+        <v>-0.006410025251363939</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>50102</v>
+      </c>
+      <c r="C104">
+        <v>32955.24031678753</v>
+      </c>
+      <c r="D104">
+        <v>-25300.40665794089</v>
+      </c>
+      <c r="E104">
+        <v>-167.8947870448665</v>
+      </c>
+      <c r="F104">
+        <v>1.885951012102665</v>
+      </c>
+      <c r="G104">
+        <v>2.477851551232057</v>
+      </c>
+      <c r="H104">
+        <v>-0.005925136591196556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>50103</v>
+      </c>
+      <c r="C105">
+        <v>34316.77720317002</v>
+      </c>
+      <c r="D105">
+        <v>-23400.55070628592</v>
+      </c>
+      <c r="E105">
+        <v>-173.3064203598097</v>
+      </c>
+      <c r="F105">
+        <v>1.745382463532868</v>
+      </c>
+      <c r="G105">
+        <v>2.579815979636034</v>
+      </c>
+      <c r="H105">
+        <v>-0.005411557100839363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>50104</v>
+      </c>
+      <c r="C106">
+        <v>35571.05630299589</v>
+      </c>
+      <c r="D106">
+        <v>-21426.57857674031</v>
+      </c>
+      <c r="E106">
+        <v>-177.8464702387189</v>
+      </c>
+      <c r="F106">
+        <v>1.599157105552879</v>
+      </c>
+      <c r="G106">
+        <v>2.673787582672816</v>
+      </c>
+      <c r="H106">
+        <v>-0.004852229717854344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>50105</v>
+      </c>
+      <c r="C107">
+        <v>36714.10848665956</v>
+      </c>
+      <c r="D107">
+        <v>-19384.28975586192</v>
+      </c>
+      <c r="E107">
+        <v>-181.6587900342196</v>
+      </c>
+      <c r="F107">
+        <v>1.447726084039766</v>
+      </c>
+      <c r="G107">
+        <v>2.759440995573403</v>
+      </c>
+      <c r="H107">
+        <v>-0.004235592665561757</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>50106</v>
+      </c>
+      <c r="C108">
+        <v>37742.20662267286</v>
+      </c>
+      <c r="D108">
+        <v>-17279.65592475015</v>
+      </c>
+      <c r="E108">
+        <v>-184.9314065195108</v>
+      </c>
+      <c r="F108">
+        <v>1.291559662076782</v>
+      </c>
+      <c r="G108">
+        <v>2.836484232148183</v>
+      </c>
+      <c r="H108">
+        <v>-0.003558596568597962</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>50107</v>
+      </c>
+      <c r="C109">
+        <v>38651.87110453117</v>
+      </c>
+      <c r="D109">
+        <v>-15118.91470370442</v>
+      </c>
+      <c r="E109">
+        <v>-187.8278446918084</v>
+      </c>
+      <c r="F109">
+        <v>1.131144808784662</v>
+      </c>
+      <c r="G109">
+        <v>2.904654629526455</v>
+      </c>
+      <c r="H109">
+        <v>-0.002826365933339289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>50108</v>
+      </c>
+      <c r="C110">
+        <v>39439.91470087435</v>
+      </c>
+      <c r="D110">
+        <v>-12908.60610923795</v>
+      </c>
+      <c r="E110">
+        <v>-190.4489308343434</v>
+      </c>
+      <c r="F110">
+        <v>0.966984772988883</v>
+      </c>
+      <c r="G110">
+        <v>2.963715328369377</v>
+      </c>
+      <c r="H110">
+        <v>-0.002049564227374609</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>50109</v>
+      </c>
+      <c r="C111">
+        <v>40103.49167083808</v>
+      </c>
+      <c r="D111">
+        <v>-10655.55927622911</v>
+      </c>
+      <c r="E111">
+        <v>-192.8279162530452</v>
+      </c>
+      <c r="F111">
+        <v>0.7995997354779135</v>
+      </c>
+      <c r="G111">
+        <v>3.013454653892653</v>
+      </c>
+      <c r="H111">
+        <v>-0.001241194373802493</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>50110</v>
+      </c>
+      <c r="C112">
+        <v>40640.13676271707</v>
+      </c>
+      <c r="D112">
+        <v>-8366.85607205355</v>
+      </c>
+      <c r="E112">
+        <v>-194.9450595689228</v>
+      </c>
+      <c r="F112">
+        <v>0.6295268679095386</v>
+      </c>
+      <c r="G112">
+        <v>3.053688061060961</v>
+      </c>
+      <c r="H112">
+        <v>-0.0004141024663481174</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>50111</v>
+      </c>
+      <c r="C113">
+        <v>41047.79452499508</v>
+      </c>
+      <c r="D113">
+        <v>-6049.790131405821</v>
+      </c>
+      <c r="E113">
+        <v>-196.7467355019402</v>
+      </c>
+      <c r="F113">
+        <v>0.4573190578533363</v>
+      </c>
+      <c r="G113">
+        <v>3.084261115424224</v>
+      </c>
+      <c r="H113">
+        <v>0.0004204273310475928</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>50112</v>
+      </c>
+      <c r="C114">
+        <v>41324.84272044935</v>
+      </c>
+      <c r="D114">
+        <v>-3711.828003559425</v>
+      </c>
+      <c r="E114">
+        <v>-198.1607735678781</v>
+      </c>
+      <c r="F114">
+        <v>0.2835425159949111</v>
+      </c>
+      <c r="G114">
+        <v>3.105052295295346</v>
+      </c>
+      <c r="H114">
+        <v>0.001253214023905183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>50113</v>
+      </c>
+      <c r="C115">
+        <v>41470.11235669476</v>
+      </c>
+      <c r="D115">
+        <v>-1360.572424169657</v>
+      </c>
+      <c r="E115">
+        <v>-199.1060882538143</v>
+      </c>
+      <c r="F115">
+        <v>0.1087737627570212</v>
+      </c>
+      <c r="G115">
+        <v>3.11597509462419</v>
+      </c>
+      <c r="H115">
+        <v>0.002077262816420139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>50114</v>
+      </c>
+      <c r="C116">
+        <v>41482.90520822581</v>
+      </c>
+      <c r="D116">
+        <v>996.2748223322719</v>
+      </c>
+      <c r="E116">
+        <v>-199.498026647558</v>
+      </c>
+      <c r="F116">
+        <v>-0.06640365161784653</v>
+      </c>
+      <c r="G116">
+        <v>3.116979348194381</v>
+      </c>
+      <c r="H116">
+        <v>0.002887707554300255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>50115</v>
+      </c>
+      <c r="C117">
+        <v>41363.00835474575</v>
+      </c>
+      <c r="D117">
+        <v>3350.953518780802</v>
+      </c>
+      <c r="E117">
+        <v>-199.2518145078041</v>
+      </c>
+      <c r="F117">
+        <v>-0.2414025417279278</v>
+      </c>
+      <c r="G117">
+        <v>3.108051849715743</v>
+      </c>
+      <c r="H117">
+        <v>0.003681769599388989</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>50116</v>
+      </c>
+      <c r="C118">
+        <v>41110.7039559472</v>
+      </c>
+      <c r="D118">
+        <v>5695.691582573946</v>
+      </c>
+      <c r="E118">
+        <v>-198.2862089343966</v>
+      </c>
+      <c r="F118">
+        <v>-0.4156355533245517</v>
+      </c>
+      <c r="G118">
+        <v>3.08921634037244</v>
+      </c>
+      <c r="H118">
+        <v>0.004458752774233069</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>50117</v>
+      </c>
+      <c r="C119">
+        <v>40726.77137779009</v>
+      </c>
+      <c r="D119">
+        <v>8022.758200616453</v>
+      </c>
+      <c r="E119">
+        <v>-196.5286877817657</v>
+      </c>
+      <c r="F119">
+        <v>-0.5885186549282454</v>
+      </c>
+      <c r="G119">
+        <v>3.060532933298847</v>
+      </c>
+      <c r="H119">
+        <v>0.005220004683759319</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>50118</v>
+      </c>
+      <c r="C120">
+        <v>40212.47855097058</v>
+      </c>
+      <c r="D120">
+        <v>10324.52112845774</v>
+      </c>
+      <c r="E120">
+        <v>-193.9225206274424</v>
+      </c>
+      <c r="F120">
+        <v>-0.7594745390818288</v>
+      </c>
+      <c r="G120">
+        <v>3.022097064365478</v>
+      </c>
+      <c r="H120">
+        <v>0.005968735508078315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>50119</v>
+      </c>
+      <c r="C121">
+        <v>39569.56082469569</v>
+      </c>
+      <c r="D121">
+        <v>12593.50225067348</v>
+      </c>
+      <c r="E121">
+        <v>-190.4350477824226</v>
+      </c>
+      <c r="F121">
+        <v>-0.9279357322301507</v>
+      </c>
+      <c r="G121">
+        <v>2.974038124691368</v>
+      </c>
+      <c r="H121">
+        <v>0.00670959614782313</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>50120</v>
+      </c>
+      <c r="C122">
+        <v>38800.18871779719</v>
+      </c>
+      <c r="D122">
+        <v>14822.42319797531</v>
+      </c>
+      <c r="E122">
+        <v>-186.0656768001433</v>
+      </c>
+      <c r="F122">
+        <v>-1.093347174811819</v>
+      </c>
+      <c r="G122">
+        <v>2.91651800361596</v>
+      </c>
+      <c r="H122">
+        <v>0.00744797281565478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>50121</v>
+      </c>
+      <c r="C123">
+        <v>37906.9298919767</v>
+      </c>
+      <c r="D123">
+        <v>17004.23338021704</v>
+      </c>
+      <c r="E123">
+        <v>-180.8517475875793</v>
+      </c>
+      <c r="F123">
+        <v>-1.255168083911833</v>
+      </c>
+      <c r="G123">
+        <v>2.849729808076421</v>
+      </c>
+      <c r="H123">
+        <v>0.008189034145437762</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>50122</v>
+      </c>
+      <c r="C124">
+        <v>36892.71355217393</v>
+      </c>
+      <c r="D124">
+        <v>19132.11671786882</v>
+      </c>
+      <c r="E124">
+        <v>-174.8706034550839</v>
+      </c>
+      <c r="F124">
+        <v>-1.4128730502559</v>
+      </c>
+      <c r="G124">
+        <v>2.77389699717101</v>
+      </c>
+      <c r="H124">
+        <v>0.008936635617150974</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>50123</v>
+      </c>
+      <c r="C125">
+        <v>35760.80576176841</v>
+      </c>
+      <c r="D125">
+        <v>21199.47919620731</v>
+      </c>
+      <c r="E125">
+        <v>-168.2366958123836</v>
+      </c>
+      <c r="F125">
+        <v>-1.56595249975522</v>
+      </c>
+      <c r="G125">
+        <v>2.689273086743494</v>
+      </c>
+      <c r="H125">
+        <v>0.009692216548464114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50124</v>
+      </c>
+      <c r="C126">
+        <v>34514.80163768261</v>
+      </c>
+      <c r="D126">
+        <v>23199.9246019722</v>
+      </c>
+      <c r="E126">
+        <v>-161.0928772871627</v>
+      </c>
+      <c r="F126">
+        <v>-1.713912803679926</v>
+      </c>
+      <c r="G126">
+        <v>2.596141971437095</v>
+      </c>
+      <c r="H126">
+        <v>0.0104538201692999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>50125</v>
+      </c>
+      <c r="C127">
+        <v>33158.6360731247</v>
+      </c>
+      <c r="D127">
+        <v>25127.22874369614</v>
+      </c>
+      <c r="E127">
+        <v>-153.5949061514069</v>
+      </c>
+      <c r="F127">
+        <v>-1.856276430102119</v>
+      </c>
+      <c r="G127">
+        <v>2.494818793981821</v>
+      </c>
+      <c r="H127">
+        <v>0.01121536909027303</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>50126</v>
+      </c>
+      <c r="C128">
+        <v>31696.60946861809</v>
+      </c>
+      <c r="D128">
+        <v>26975.32325147357</v>
+      </c>
+      <c r="E128">
+        <v>-145.8879846856089</v>
+      </c>
+      <c r="F128">
+        <v>-1.992582627322869</v>
+      </c>
+      <c r="G128">
+        <v>2.385651116099643</v>
+      </c>
+      <c r="H128">
+        <v>0.0119663912298748</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>50127</v>
+      </c>
+      <c r="C129">
+        <v>30133.41884242673</v>
+      </c>
+      <c r="D129">
+        <v>28738.29977646032</v>
+      </c>
+      <c r="E129">
+        <v>-138.0752630063412</v>
+      </c>
+      <c r="F129">
+        <v>-2.12238924732623</v>
+      </c>
+      <c r="G129">
+        <v>2.269019812153203</v>
+      </c>
+      <c r="H129">
+        <v>0.01269252350196759</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>50128</v>
+      </c>
+      <c r="C130">
+        <v>28474.17795707915</v>
+      </c>
+      <c r="D130">
+        <v>30410.44342591019</v>
+      </c>
+      <c r="E130">
+        <v>-130.1825832479264</v>
+      </c>
+      <c r="F130">
+        <v>-2.245276318901672</v>
+      </c>
+      <c r="G130">
+        <v>2.145338604465256</v>
+      </c>
+      <c r="H130">
+        <v>0.01337721097902917</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>50129</v>
+      </c>
+      <c r="C131">
+        <v>26724.40660519084</v>
+      </c>
+      <c r="D131">
+        <v>31986.29760861555</v>
+      </c>
+      <c r="E131">
+        <v>-122.1317781259073</v>
+      </c>
+      <c r="F131">
+        <v>-2.360851504656557</v>
+      </c>
+      <c r="G131">
+        <v>2.015050791810499</v>
+      </c>
+      <c r="H131">
+        <v>0.01400480975380221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>50130</v>
+      </c>
+      <c r="C132">
+        <v>24889.97730877955</v>
+      </c>
+      <c r="D132">
+        <v>33460.74911385133</v>
+      </c>
+      <c r="E132">
+        <v>-113.7420028718899</v>
+      </c>
+      <c r="F132">
+        <v>-2.468756284021575</v>
+      </c>
+      <c r="G132">
+        <v>1.878622244614275</v>
+      </c>
+      <c r="H132">
+        <v>0.01456455347537561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>50131</v>
+      </c>
+      <c r="C133">
+        <v>22977.03065531987</v>
+      </c>
+      <c r="D133">
+        <v>34829.10843500312</v>
+      </c>
+      <c r="E133">
+        <v>-104.774276992703</v>
+      </c>
+      <c r="F133">
+        <v>-2.568670135354357</v>
+      </c>
+      <c r="G133">
+        <v>1.736531748001519</v>
+      </c>
+      <c r="H133">
+        <v>0.01505378464958972</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>50132</v>
+      </c>
+      <c r="C134">
+        <v>20991.89309893788</v>
+      </c>
+      <c r="D134">
+        <v>36087.15912210669</v>
+      </c>
+      <c r="E134">
+        <v>-95.01149162211431</v>
+      </c>
+      <c r="F134">
+        <v>-2.660309965303894</v>
+      </c>
+      <c r="G134">
+        <v>1.589262370052305</v>
+      </c>
+      <c r="H134">
+        <v>0.01547847057038594</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>50133</v>
+      </c>
+      <c r="C135">
+        <v>18941.02835644196</v>
+      </c>
+      <c r="D135">
+        <v>37231.16578424123</v>
+      </c>
+      <c r="E135">
+        <v>-84.3374047577917</v>
+      </c>
+      <c r="F135">
+        <v>-2.743424869675178</v>
+      </c>
+      <c r="G135">
+        <v>1.437298048629209</v>
+      </c>
+      <c r="H135">
+        <v>0.01585027435594568</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>50134</v>
+      </c>
+      <c r="C136">
+        <v>16831.02579128428</v>
+      </c>
+      <c r="D136">
+        <v>38257.85010020862</v>
+      </c>
+      <c r="E136">
+        <v>-72.77284927387203</v>
+      </c>
+      <c r="F136">
+        <v>-2.817789963651378</v>
+      </c>
+      <c r="G136">
+        <v>1.281126452973526</v>
+      </c>
+      <c r="H136">
+        <v>0.0161816869412236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>50135</v>
+      </c>
+      <c r="C137">
+        <v>14668.60684649996</v>
+      </c>
+      <c r="D137">
+        <v>39164.35378515145</v>
+      </c>
+      <c r="E137">
+        <v>-60.45597538600106</v>
+      </c>
+      <c r="F137">
+        <v>-2.883203504926532</v>
+      </c>
+      <c r="G137">
+        <v>1.121244892982516</v>
+      </c>
+      <c r="H137">
+        <v>0.01648185748633245</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>50136</v>
+      </c>
+      <c r="C138">
+        <v>12460.63085549835</v>
+      </c>
+      <c r="D138">
+        <v>39948.20661911868</v>
+      </c>
+      <c r="E138">
+        <v>-47.58867875738095</v>
+      </c>
+      <c r="F138">
+        <v>-2.939488366468179</v>
+      </c>
+      <c r="G138">
+        <v>0.9581647210752833</v>
+      </c>
+      <c r="H138">
+        <v>0.01675478786813188</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50137</v>
+      </c>
+      <c r="C139">
+        <v>10214.0917404224</v>
+      </c>
+      <c r="D139">
+        <v>40607.31075039752</v>
+      </c>
+      <c r="E139">
+        <v>-34.38236971661431</v>
+      </c>
+      <c r="F139">
+        <v>-2.986495787770895</v>
+      </c>
+      <c r="G139">
+        <v>0.7924118950708989</v>
+      </c>
+      <c r="H139">
+        <v>0.01699975510169894</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>50138</v>
+      </c>
+      <c r="C140">
+        <v>7936.103781971315</v>
+      </c>
+      <c r="D140">
+        <v>41139.94254443957</v>
+      </c>
+      <c r="E140">
+        <v>-21.0228902685234</v>
+      </c>
+      <c r="F140">
+        <v>-3.02410886902722</v>
+      </c>
+      <c r="G140">
+        <v>0.6245242444972933</v>
+      </c>
+      <c r="H140">
+        <v>0.01721283053327075</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>50139</v>
+      </c>
+      <c r="C141">
+        <v>5633.877718150298</v>
+      </c>
+      <c r="D141">
+        <v>41544.76528054398</v>
+      </c>
+      <c r="E141">
+        <v>-7.656522175153293</v>
+      </c>
+      <c r="F141">
+        <v>-3.052244602247487</v>
+      </c>
+      <c r="G141">
+        <v>0.4550472175142144</v>
+      </c>
+      <c r="H141">
+        <v>0.01738845577329516</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>50140</v>
+      </c>
+      <c r="C142">
+        <v>3314.6776790995</v>
+      </c>
+      <c r="D142">
+        <v>41820.85355796103</v>
+      </c>
+      <c r="E142">
+        <v>5.611688314723918</v>
+      </c>
+      <c r="F142">
+        <v>-3.070853970224492</v>
+      </c>
+      <c r="G142">
+        <v>0.2845283454697156</v>
+      </c>
+      <c r="H142">
+        <v>0.01752054151640122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>50141</v>
+      </c>
+      <c r="C143">
+        <v>985.7856941830743</v>
+      </c>
+      <c r="D143">
+        <v>41967.70195215433</v>
+      </c>
+      <c r="E143">
+        <v>18.71274423169867</v>
+      </c>
+      <c r="F143">
+        <v>-3.079921258457204</v>
+      </c>
+      <c r="G143">
+        <v>0.1135134888204447</v>
+      </c>
+      <c r="H143">
+        <v>0.0176030692897474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>50142</v>
+      </c>
+      <c r="C144">
+        <v>-1345.471130753127</v>
+      </c>
+      <c r="D144">
+        <v>41985.18734303136</v>
+      </c>
+      <c r="E144">
+        <v>31.6021913559348</v>
+      </c>
+      <c r="F144">
+        <v>-3.079466100087486</v>
+      </c>
+      <c r="G144">
+        <v>-0.05745069348885121</v>
+      </c>
+      <c r="H144">
+        <v>0.01763052135277496</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>50143</v>
+      </c>
+      <c r="C145">
+        <v>-3671.806005808384</v>
+      </c>
+      <c r="D145">
+        <v>41873.61422258749</v>
+      </c>
+      <c r="E145">
+        <v>44.26306536205396</v>
+      </c>
+      <c r="F145">
+        <v>-3.069540542751924</v>
+      </c>
+      <c r="G145">
+        <v>-0.2278248267875107</v>
+      </c>
+      <c r="H145">
+        <v>0.01759788383664197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>50144</v>
+      </c>
+      <c r="C146">
+        <v>-5985.994566043315</v>
+      </c>
+      <c r="D146">
+        <v>41633.703393358</v>
+      </c>
+      <c r="E146">
+        <v>56.70395265851958</v>
+      </c>
+      <c r="F146">
+        <v>-3.050228134798867</v>
+      </c>
+      <c r="G146">
+        <v>-0.397078514772388</v>
+      </c>
+      <c r="H146">
+        <v>0.01750078505013828</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>50145</v>
+      </c>
+      <c r="C147">
+        <v>-8280.900342817944</v>
+      </c>
+      <c r="D147">
+        <v>41266.58326382566</v>
+      </c>
+      <c r="E147">
+        <v>68.95830947419012</v>
+      </c>
+      <c r="F147">
+        <v>-3.021642648723251</v>
+      </c>
+      <c r="G147">
+        <v>-0.5646924494534261</v>
+      </c>
+      <c r="H147">
+        <v>0.01733575674676837</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>50146</v>
+      </c>
+      <c r="C148">
+        <v>-10549.50176417387</v>
+      </c>
+      <c r="D148">
+        <v>40773.78143160236</v>
+      </c>
+      <c r="E148">
+        <v>81.08239512062987</v>
+      </c>
+      <c r="F148">
+        <v>-2.983926364777485</v>
+      </c>
+      <c r="G148">
+        <v>-0.7301605983850797</v>
+      </c>
+      <c r="H148">
+        <v>0.0171006703957133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>50147</v>
+      </c>
+      <c r="C149">
+        <v>-12784.92062444118</v>
+      </c>
+      <c r="D149">
+        <v>40157.21539077621</v>
+      </c>
+      <c r="E149">
+        <v>93.1492160469945</v>
+      </c>
+      <c r="F149">
+        <v>-2.937247874135048</v>
+      </c>
+      <c r="G149">
+        <v>-0.892992205508534</v>
+      </c>
+      <c r="H149">
+        <v>0.01679531589423692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>50148</v>
+      </c>
+      <c r="C150">
+        <v>-14980.45171302971</v>
+      </c>
+      <c r="D150">
+        <v>39419.18085648766</v>
+      </c>
+      <c r="E150">
+        <v>105.2366808280212</v>
+      </c>
+      <c r="F150">
+        <v>-2.881799496266451</v>
+      </c>
+      <c r="G150">
+        <v>-1.05271331405457</v>
+      </c>
+      <c r="H150">
+        <v>0.01642199004051055</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50149</v>
+      </c>
+      <c r="C151">
+        <v>-17129.59104690569</v>
+      </c>
+      <c r="D151">
+        <v>38562.33574381775</v>
+      </c>
+      <c r="E151">
+        <v>117.4099919786713</v>
+      </c>
+      <c r="F151">
+        <v>-2.817794655170984</v>
+      </c>
+      <c r="G151">
+        <v>-1.208867506594021</v>
+      </c>
+      <c r="H151">
+        <v>0.01598587465040619</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>50150</v>
+      </c>
+      <c r="C152">
+        <v>-19226.05750890392</v>
+      </c>
+      <c r="D152">
+        <v>37589.67904700543</v>
+      </c>
+      <c r="E152">
+        <v>129.7009065070692</v>
+      </c>
+      <c r="F152">
+        <v>-2.745465771275311</v>
+      </c>
+      <c r="G152">
+        <v>-1.361015696148033</v>
+      </c>
+      <c r="H152">
+        <v>0.01549495561756136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>50151</v>
+      </c>
+      <c r="C153">
+        <v>-21263.80212761908</v>
+      </c>
+      <c r="D153">
+        <v>36504.52700904039</v>
+      </c>
+      <c r="E153">
+        <v>142.0888136571603</v>
+      </c>
+      <c r="F153">
+        <v>-2.665063212718341</v>
+      </c>
+      <c r="G153">
+        <v>-1.508735103954814</v>
+      </c>
+      <c r="H153">
+        <v>0.01495930659683876</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>50152</v>
+      </c>
+      <c r="C154">
+        <v>-23237.00264521745</v>
+      </c>
+      <c r="D154">
+        <v>35310.4923783827</v>
+      </c>
+      <c r="E154">
+        <v>154.4892823055607</v>
+      </c>
+      <c r="F154">
+        <v>-2.576855523232171</v>
+      </c>
+      <c r="G154">
+        <v>-1.65161788378483</v>
+      </c>
+      <c r="H154">
+        <v>0.0143897288149066</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>50153</v>
+      </c>
+      <c r="C155">
+        <v>-25140.0480150892</v>
+      </c>
+      <c r="D155">
+        <v>34011.47311972181</v>
+      </c>
+      <c r="E155">
+        <v>166.7543101281112</v>
+      </c>
+      <c r="F155">
+        <v>-2.481130622884763</v>
+      </c>
+      <c r="G155">
+        <v>-1.789270022645547</v>
+      </c>
+      <c r="H155">
+        <v>0.01379593413732812</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>50154</v>
+      </c>
+      <c r="C156">
+        <v>-26967.52442051841</v>
+      </c>
+      <c r="D156">
+        <v>32611.65266367588</v>
+      </c>
+      <c r="E156">
+        <v>178.6858280129421</v>
+      </c>
+      <c r="F156">
+        <v>-2.37819723655051</v>
+      </c>
+      <c r="G156">
+        <v>-1.921311069238089</v>
+      </c>
+      <c r="H156">
+        <v>0.0131845999445244</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>50155</v>
+      </c>
+      <c r="C157">
+        <v>-28714.21697514182</v>
+      </c>
+      <c r="D157">
+        <v>31115.50558222305</v>
+      </c>
+      <c r="E157">
+        <v>190.0615413965376</v>
+      </c>
+      <c r="F157">
+        <v>-2.268385652914855</v>
+      </c>
+      <c r="G157">
+        <v>-2.047374998526856</v>
+      </c>
+      <c r="H157">
+        <v>0.01255768906443242</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>50156</v>
+      </c>
+      <c r="C158">
+        <v>-30375.13691364826</v>
+      </c>
+      <c r="D158">
+        <v>29527.79425371956</v>
+      </c>
+      <c r="E158">
+        <v>200.6704240368495</v>
+      </c>
+      <c r="F158">
+        <v>-2.15204707047524</v>
+      </c>
+      <c r="G158">
+        <v>-2.167112269170869</v>
+      </c>
+      <c r="H158">
+        <v>0.01191146490769836</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>50157</v>
+      </c>
+      <c r="C159">
+        <v>-31945.57259466307</v>
+      </c>
+      <c r="D159">
+        <v>27853.53930414809</v>
+      </c>
+      <c r="E159">
+        <v>210.3529831544467</v>
+      </c>
+      <c r="F159">
+        <v>-2.029551165761655</v>
+      </c>
+      <c r="G159">
+        <v>-2.280192913355099</v>
+      </c>
+      <c r="H159">
+        <v>0.01123667243738639</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>50158</v>
+      </c>
+      <c r="C160">
+        <v>-33421.14690870497</v>
+      </c>
+      <c r="D160">
+        <v>26097.95538039827</v>
+      </c>
+      <c r="E160">
+        <v>219.0374103288395</v>
+      </c>
+      <c r="F160">
+        <v>-1.901282076105606</v>
+      </c>
+      <c r="G160">
+        <v>-2.386310210424943</v>
+      </c>
+      <c r="H160">
+        <v>0.01052029655736439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>50159</v>
+      </c>
+      <c r="C161">
+        <v>-34797.85150059747</v>
+      </c>
+      <c r="D161">
+        <v>24266.36673575918</v>
+      </c>
+      <c r="E161">
+        <v>226.7581995070379</v>
+      </c>
+      <c r="F161">
+        <v>-1.767633721701009</v>
+      </c>
+      <c r="G161">
+        <v>-2.485184005421039</v>
+      </c>
+      <c r="H161">
+        <v>0.009748922468230951</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>50160</v>
+      </c>
+      <c r="C162">
+        <v>-36072.03345530778</v>
+      </c>
+      <c r="D162">
+        <v>22364.14280644495</v>
+      </c>
+      <c r="E162">
+        <v>233.6442159170866</v>
+      </c>
+      <c r="F162">
+        <v>-1.629005997495847</v>
+      </c>
+      <c r="G162">
+        <v>-2.576562317083627</v>
+      </c>
+      <c r="H162">
+        <v>0.008912914974175431</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>50161</v>
+      </c>
+      <c r="C163">
+        <v>-37240.33889561643</v>
+      </c>
+      <c r="D163">
+        <v>20396.69630820276</v>
+      </c>
+      <c r="E163">
+        <v>239.8740960543865</v>
+      </c>
+      <c r="F163">
+        <v>-1.485803251942664</v>
+      </c>
+      <c r="G163">
+        <v>-2.660220183927558</v>
+      </c>
+      <c r="H163">
+        <v>0.008009818360169878</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>50162</v>
+      </c>
+      <c r="C164">
+        <v>-38299.65156938708</v>
+      </c>
+      <c r="D164">
+        <v>18369.54916933427</v>
+      </c>
+      <c r="E164">
+        <v>245.6149582959017</v>
+      </c>
+      <c r="F164">
+        <v>-1.338435324525856</v>
+      </c>
+      <c r="G164">
+        <v>-2.735956058013506</v>
+      </c>
+      <c r="H164">
+        <v>0.007045380581011324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>50163</v>
+      </c>
+      <c r="C165">
+        <v>-39247.06910954185</v>
+      </c>
+      <c r="D165">
+        <v>16288.4210534068</v>
+      </c>
+      <c r="E165">
+        <v>250.971490291842</v>
+      </c>
+      <c r="F165">
+        <v>-1.187319944012791</v>
+      </c>
+      <c r="G165">
+        <v>-2.803587613823186</v>
+      </c>
+      <c r="H165">
+        <v>0.006031780247960398</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>50164</v>
+      </c>
+      <c r="C166">
+        <v>-40079.9279811109</v>
+      </c>
+      <c r="D166">
+        <v>14159.2812760007</v>
+      </c>
+      <c r="E166">
+        <v>255.9653110451312</v>
+      </c>
+      <c r="F166">
+        <v>-1.032884730867675</v>
+      </c>
+      <c r="G166">
+        <v>-2.86294913487335</v>
+      </c>
+      <c r="H166">
+        <v>0.004984163700822703</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>50165</v>
+      </c>
+      <c r="C167">
+        <v>-40795.85331704917</v>
+      </c>
+      <c r="D167">
+        <v>11988.33906457162</v>
+      </c>
+      <c r="E167">
+        <v>260.5452275546195</v>
+      </c>
+      <c r="F167">
+        <v>-0.8755677234425634</v>
+      </c>
+      <c r="G167">
+        <v>-2.913891395235853</v>
+      </c>
+      <c r="H167">
+        <v>0.003917233788003626</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>50166</v>
+      </c>
+      <c r="C168">
+        <v>-41392.80280075927</v>
+      </c>
+      <c r="D168">
+        <v>9781.989919830301</v>
+      </c>
+      <c r="E168">
+        <v>264.614215684975</v>
+      </c>
+      <c r="F168">
+        <v>-0.7158164158339355</v>
+      </c>
+      <c r="G168">
+        <v>-2.956283409997374</v>
+      </c>
+      <c r="H168">
+        <v>0.002843071528083481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>50167</v>
+      </c>
+      <c r="C169">
+        <v>-41869.08982518663</v>
+      </c>
+      <c r="D169">
+        <v>7546.751047056282</v>
+      </c>
+      <c r="E169">
+        <v>268.057220265797</v>
+      </c>
+      <c r="F169">
+        <v>-0.5540858957163782</v>
+      </c>
+      <c r="G169">
+        <v>-2.990014782594384</v>
+      </c>
+      <c r="H169">
+        <v>0.001770376238280093</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>50168</v>
+      </c>
+      <c r="C170">
+        <v>-42223.38807267046</v>
+      </c>
+      <c r="D170">
+        <v>5289.208053202437</v>
+      </c>
+      <c r="E170">
+        <v>270.760802720294</v>
+      </c>
+      <c r="F170">
+        <v>-0.3908366869279573</v>
+      </c>
+      <c r="G170">
+        <v>-3.014997671145641</v>
+      </c>
+      <c r="H170">
+        <v>0.0007046647511575892</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>50169</v>
+      </c>
+      <c r="C171">
+        <v>-42454.72602770168</v>
+      </c>
+      <c r="D171">
+        <v>3015.978677533038</v>
+      </c>
+      <c r="E171">
+        <v>272.6232261757423</v>
+      </c>
+      <c r="F171">
+        <v>-0.2265326543594155</v>
+      </c>
+      <c r="G171">
+        <v>-3.031167995423782</v>
+      </c>
+      <c r="H171">
+        <v>-0.0003511470605238842</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>50170</v>
+      </c>
+      <c r="C172">
+        <v>-42562.47834813024</v>
+      </c>
+      <c r="D172">
+        <v>733.6898304174046</v>
+      </c>
+      <c r="E172">
+        <v>273.5577629403132</v>
+      </c>
+      <c r="F172">
+        <v>-0.06163907935104594</v>
+      </c>
+      <c r="G172">
+        <v>-3.038485924090587</v>
+      </c>
+      <c r="H172">
+        <v>-0.001396176653042105</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>50171</v>
+      </c>
+      <c r="C173">
+        <v>-42546.35722741096</v>
+      </c>
+      <c r="D173">
+        <v>-1551.037805782398</v>
+      </c>
+      <c r="E173">
+        <v>273.4930612431921</v>
+      </c>
+      <c r="F173">
+        <v>0.1033800626085529</v>
+      </c>
+      <c r="G173">
+        <v>-3.036935689065405</v>
+      </c>
+      <c r="H173">
+        <v>-0.002431127552916361</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>50172</v>
+      </c>
+      <c r="C174">
+        <v>-42406.40549985702</v>
+      </c>
+      <c r="D174">
+        <v>-3831.601629694662</v>
+      </c>
+      <c r="E174">
+        <v>272.3738022681367</v>
+      </c>
+      <c r="F174">
+        <v>0.2680607079995708</v>
+      </c>
+      <c r="G174">
+        <v>-3.02652553243642</v>
+      </c>
+      <c r="H174">
+        <v>-0.00345823598911193</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>50173</v>
+      </c>
+      <c r="C175">
+        <v>-42142.99160621403</v>
+      </c>
+      <c r="D175">
+        <v>-6101.427494136253</v>
+      </c>
+      <c r="E175">
+        <v>270.1638479860593</v>
+      </c>
+      <c r="F175">
+        <v>0.4319429756336639</v>
+      </c>
+      <c r="G175">
+        <v>-3.007286625212757</v>
+      </c>
+      <c r="H175">
+        <v>-0.004480952036847207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>50174</v>
+      </c>
+      <c r="C176">
+        <v>-41756.80645101818</v>
+      </c>
+      <c r="D176">
+        <v>-8353.979057424884</v>
+      </c>
+      <c r="E176">
+        <v>266.8528122009278</v>
+      </c>
+      <c r="F176">
+        <v>0.5945713582342419</v>
+      </c>
+      <c r="G176">
+        <v>-2.979272154222366</v>
+      </c>
+      <c r="H176">
+        <v>-0.0055036653809686</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>50175</v>
+      </c>
+      <c r="C177">
+        <v>-41248.86411245314</v>
+      </c>
+      <c r="D177">
+        <v>-10582.76691567499</v>
+      </c>
+      <c r="E177">
+        <v>262.4651115036963</v>
+      </c>
+      <c r="F177">
+        <v>0.7554951005122279</v>
+      </c>
+      <c r="G177">
+        <v>-2.942556223504592</v>
+      </c>
+      <c r="H177">
+        <v>-0.006531071742816161</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>50176</v>
+      </c>
+      <c r="C178">
+        <v>-40620.50636439126</v>
+      </c>
+      <c r="D178">
+        <v>-12781.35870765623</v>
+      </c>
+      <c r="E178">
+        <v>257.0683404225797</v>
+      </c>
+      <c r="F178">
+        <v>0.9142678994316787</v>
+      </c>
+      <c r="G178">
+        <v>-2.897232956083788</v>
+      </c>
+      <c r="H178">
+        <v>-0.007567101097541088</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>50177</v>
+      </c>
+      <c r="C179">
+        <v>-39873.40917520957</v>
+      </c>
+      <c r="D179">
+        <v>-14943.39162470055</v>
+      </c>
+      <c r="E179">
+        <v>250.7756988591486</v>
+      </c>
+      <c r="F179">
+        <v>1.07044645455357</v>
+      </c>
+      <c r="G179">
+        <v>-2.843416402679128</v>
+      </c>
+      <c r="H179">
+        <v>-0.008613549044958707</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>50178</v>
+      </c>
+      <c r="C180">
+        <v>-39009.58741903017</v>
+      </c>
+      <c r="D180">
+        <v>-17062.58720920263</v>
+      </c>
+      <c r="E180">
+        <v>243.7368492935749</v>
+      </c>
+      <c r="F180">
+        <v>1.22359041952254</v>
+      </c>
+      <c r="G180">
+        <v>-2.781241200909671</v>
+      </c>
+      <c r="H180">
+        <v>-0.009668556155138903</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>50179</v>
+      </c>
+      <c r="C181">
+        <v>-38031.39208823032</v>
+      </c>
+      <c r="D181">
+        <v>-19132.76487715229</v>
+      </c>
+      <c r="E181">
+        <v>236.1148657018527</v>
+      </c>
+      <c r="F181">
+        <v>1.373263178637</v>
+      </c>
+      <c r="G181">
+        <v>-2.710864126128743</v>
+      </c>
+      <c r="H181">
+        <v>-0.01072554890791319</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>50180</v>
+      </c>
+      <c r="C182">
+        <v>-36941.50320835981</v>
+      </c>
+      <c r="D182">
+        <v>-21147.85039621844</v>
+      </c>
+      <c r="E182">
+        <v>228.0525393548956</v>
+      </c>
+      <c r="F182">
+        <v>1.51903137210981</v>
+      </c>
+      <c r="G182">
+        <v>-2.632466593672352</v>
+      </c>
+      <c r="H182">
+        <v>-0.01177345573200589</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>50181</v>
+      </c>
+      <c r="C183">
+        <v>-35742.92228004201</v>
+      </c>
+      <c r="D183">
+        <v>-23101.87827070068</v>
+      </c>
+      <c r="E183">
+        <v>219.6377538482801</v>
+      </c>
+      <c r="F183">
+        <v>1.660468338914424</v>
+      </c>
+      <c r="G183">
+        <v>-2.546255799058627</v>
+      </c>
+      <c r="H183">
+        <v>-0.01279782856831518</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>50182</v>
+      </c>
+      <c r="C184">
+        <v>-34438.97005637647</v>
+      </c>
+      <c r="D184">
+        <v>-24988.99424302136</v>
+      </c>
+      <c r="E184">
+        <v>210.8795410136862</v>
+      </c>
+      <c r="F184">
+        <v>1.797157146778156</v>
+      </c>
+      <c r="G184">
+        <v>-2.452464644572065</v>
+      </c>
+      <c r="H184">
+        <v>-0.01378303409878632</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>50183</v>
+      </c>
+      <c r="C185">
+        <v>-33033.29040910343</v>
+      </c>
+      <c r="D185">
+        <v>-26803.46879856569</v>
+      </c>
+      <c r="E185">
+        <v>201.7029421373208</v>
+      </c>
+      <c r="F185">
+        <v>1.928693162117977</v>
+      </c>
+      <c r="G185">
+        <v>-2.351350245035984</v>
+      </c>
+      <c r="H185">
+        <v>-0.01471492140082849</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>50184</v>
+      </c>
+      <c r="C186">
+        <v>-31529.85530038333</v>
+      </c>
+      <c r="D186">
+        <v>-28539.73015378872</v>
+      </c>
+      <c r="E186">
+        <v>191.9641488060083</v>
+      </c>
+      <c r="F186">
+        <v>2.054685511774524</v>
+      </c>
+      <c r="G186">
+        <v>-2.243191525866442</v>
+      </c>
+      <c r="H186">
+        <v>-0.01558333513514641</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>50185</v>
+      </c>
+      <c r="C187">
+        <v>-29932.9320361393</v>
+      </c>
+      <c r="D187">
+        <v>-30192.40423239086</v>
+      </c>
+      <c r="E187">
+        <v>181.4862975313666</v>
+      </c>
+      <c r="F187">
+        <v>2.17476291849163</v>
+      </c>
+      <c r="G187">
+        <v>-2.128284032485312</v>
+      </c>
+      <c r="H187">
+        <v>-0.0163831630135426</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>50186</v>
+      </c>
+      <c r="C188">
+        <v>-28247.08500293653</v>
+      </c>
+      <c r="D188">
+        <v>-31756.37887542891</v>
+      </c>
+      <c r="E188">
+        <v>170.0974478249443</v>
+      </c>
+      <c r="F188">
+        <v>2.288568124302638</v>
+      </c>
+      <c r="G188">
+        <v>-2.006939078378277</v>
+      </c>
+      <c r="H188">
+        <v>-0.01711556689362378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>50187</v>
+      </c>
+      <c r="C189">
+        <v>-26477.12594177369</v>
+      </c>
+      <c r="D189">
+        <v>-33226.8441654378</v>
+      </c>
+      <c r="E189">
+        <v>157.6747189357923</v>
+      </c>
+      <c r="F189">
+        <v>2.395760119685376</v>
+      </c>
+      <c r="G189">
+        <v>-1.879480478478682</v>
+      </c>
+      <c r="H189">
+        <v>-0.0177867596827645</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>50188</v>
+      </c>
+      <c r="C190">
+        <v>-24628.07366238862</v>
+      </c>
+      <c r="D190">
+        <v>-34599.30928462397</v>
+      </c>
+      <c r="E190">
+        <v>144.1779528228505</v>
+      </c>
+      <c r="F190">
+        <v>2.496013275913982</v>
+      </c>
+      <c r="G190">
+        <v>-1.74624399189067</v>
+      </c>
+      <c r="H190">
+        <v>-0.01840590393523468</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>50189</v>
+      </c>
+      <c r="C191">
+        <v>-22705.1315234025</v>
+      </c>
+      <c r="D191">
+        <v>-35869.58712846978</v>
+      </c>
+      <c r="E191">
+        <v>129.6646225353291</v>
+      </c>
+      <c r="F191">
+        <v>2.589016317147897</v>
+      </c>
+      <c r="G191">
+        <v>-1.607579046918786</v>
+      </c>
+      <c r="H191">
+        <v>-0.01898229115286882</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>50190</v>
+      </c>
+      <c r="C192">
+        <v>-20713.69532878131</v>
+      </c>
+      <c r="D192">
+        <v>-37033.75765930024</v>
+      </c>
+      <c r="E192">
+        <v>114.2803419450708</v>
+      </c>
+      <c r="F192">
+        <v>2.674471842571329</v>
+      </c>
+      <c r="G192">
+        <v>-1.463852266603508</v>
+      </c>
+      <c r="H192">
+        <v>-0.01952259216594836</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>50191</v>
+      </c>
+      <c r="C193">
+        <v>-18659.38779399767</v>
+      </c>
+      <c r="D193">
+        <v>-38088.13434932808</v>
+      </c>
+      <c r="E193">
+        <v>98.22766763580337</v>
+      </c>
+      <c r="F193">
+        <v>2.752096982827536</v>
+      </c>
+      <c r="G193">
+        <v>-1.31545131033867</v>
+      </c>
+      <c r="H193">
+        <v>-0.02002903398728074</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>50192</v>
+      </c>
+      <c r="C194">
+        <v>-16548.09862202385</v>
+      </c>
+      <c r="D194">
+        <v>-39029.25699695418</v>
+      </c>
+      <c r="E194">
+        <v>81.72460557983263</v>
+      </c>
+      <c r="F194">
+        <v>2.821625297692576</v>
+      </c>
+      <c r="G194">
+        <v>-1.16278727715145</v>
+      </c>
+      <c r="H194">
+        <v>-0.02049901163061313</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>50193</v>
+      </c>
+      <c r="C195">
+        <v>-14386.00525097578</v>
+      </c>
+      <c r="D195">
+        <v>-39853.91798713944</v>
+      </c>
+      <c r="E195">
+        <v>64.96743655494134</v>
+      </c>
+      <c r="F195">
+        <v>2.882809487578821</v>
+      </c>
+      <c r="G195">
+        <v>-1.00629467269212</v>
+      </c>
+      <c r="H195">
+        <v>-0.02092602809754877</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>50194</v>
+      </c>
+      <c r="C196">
+        <v>-12179.5615149394</v>
+      </c>
+      <c r="D196">
+        <v>-40559.21036060924</v>
+      </c>
+      <c r="E196">
+        <v>48.1080386243673</v>
+      </c>
+      <c r="F196">
+        <v>2.935424241056219</v>
+      </c>
+      <c r="G196">
+        <v>-0.8464291646036466</v>
+      </c>
+      <c r="H196">
+        <v>-0.02130135753348481</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>50195</v>
+      </c>
+      <c r="C197">
+        <v>-9935.458744688935</v>
+      </c>
+      <c r="D197">
+        <v>-41142.57833148533</v>
+      </c>
+      <c r="E197">
+        <v>31.24757336415972</v>
+      </c>
+      <c r="F197">
+        <v>2.97926867000203</v>
+      </c>
+      <c r="G197">
+        <v>-0.6836641631363723</v>
+      </c>
+      <c r="H197">
+        <v>-0.02161572328389212</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>50196</v>
+      </c>
+      <c r="C198">
+        <v>-7660.573491932079</v>
+      </c>
+      <c r="D198">
+        <v>-41601.85589851677</v>
+      </c>
+      <c r="E198">
+        <v>14.44184970302753</v>
+      </c>
+      <c r="F198">
+        <v>3.014168110421372</v>
+      </c>
+      <c r="G198">
+        <v>-0.5184872951914709</v>
+      </c>
+      <c r="H198">
+        <v>-0.0218605269388443</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>50197</v>
+      </c>
+      <c r="C199">
+        <v>-5361.914940428665</v>
+      </c>
+      <c r="D199">
+        <v>-41935.28898358432</v>
+      </c>
+      <c r="E199">
+        <v>-2.288399155493681</v>
+      </c>
+      <c r="F199">
+        <v>3.039975349591653</v>
+      </c>
+      <c r="G199">
+        <v>-0.3513973654187666</v>
+      </c>
+      <c r="H199">
+        <v>-0.02202850994657813</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>50198</v>
+      </c>
+      <c r="C200">
+        <v>-3046.578494895793</v>
+      </c>
+      <c r="D200">
+        <v>-42141.54341068671</v>
+      </c>
+      <c r="E200">
+        <v>-18.94762210067771</v>
+      </c>
+      <c r="F200">
+        <v>3.056571464897404</v>
+      </c>
+      <c r="G200">
+        <v>-0.1829018840756884</v>
+      </c>
+      <c r="H200">
+        <v>-0.02211397557398693</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>50199</v>
+      </c>
+      <c r="C201">
+        <v>-721.7061477982888</v>
+      </c>
+      <c r="D201">
+        <v>-42219.7028957084</v>
+      </c>
+      <c r="E201">
+        <v>-35.55847889181896</v>
+      </c>
+      <c r="F201">
+        <v>3.06386645039206</v>
+      </c>
+      <c r="G201">
+        <v>-0.01351494162044805</v>
+      </c>
+      <c r="H201">
+        <v>-0.02211279391228048</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>50200</v>
+      </c>
+      <c r="C202">
+        <v>1605.548136417547</v>
+      </c>
+      <c r="D202">
+        <v>-42169.25993858339</v>
+      </c>
+      <c r="E202">
+        <v>-52.15784319408088</v>
+      </c>
+      <c r="F202">
+        <v>3.061799734654598</v>
+      </c>
+      <c r="G202">
+        <v>0.1562448572933061</v>
+      </c>
+      <c r="H202">
+        <v>-0.02202240090642381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>50201</v>
+      </c>
+      <c r="C203">
+        <v>3928.048760844326</v>
+      </c>
+      <c r="D203">
+        <v>-41990.10083051952</v>
+      </c>
+      <c r="E203">
+        <v>-68.79405433306385</v>
+      </c>
+      <c r="F203">
+        <v>3.050340612017711</v>
+      </c>
+      <c r="G203">
+        <v>0.3258566045331546</v>
+      </c>
+      <c r="H203">
+        <v>-0.02184194021441394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>50202</v>
+      </c>
+      <c r="C204">
+        <v>6238.702111868198</v>
+      </c>
+      <c r="D204">
+        <v>-41682.48593589643</v>
+      </c>
+      <c r="E204">
+        <v>-85.52250451221039</v>
+      </c>
+      <c r="F204">
+        <v>3.029488540065983</v>
+      </c>
+      <c r="G204">
+        <v>0.4947994681329551</v>
+      </c>
+      <c r="H204">
+        <v>-0.02157260736094126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>50203</v>
+      </c>
+      <c r="C205">
+        <v>8530.467484940464</v>
+      </c>
+      <c r="D205">
+        <v>-41247.02912447377</v>
+      </c>
+      <c r="E205">
+        <v>-102.396083186722</v>
+      </c>
+      <c r="F205">
+        <v>2.99927320600839</v>
+      </c>
+      <c r="G205">
+        <v>0.6625550107401968</v>
+      </c>
+      <c r="H205">
+        <v>-0.02121812957256282</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>50204</v>
+      </c>
+      <c r="C206">
+        <v>10796.34843003006</v>
+      </c>
+      <c r="D206">
+        <v>-40684.68546817366</v>
+      </c>
+      <c r="E206">
+        <v>-119.4477085694031</v>
+      </c>
+      <c r="F206">
+        <v>2.95975424620998</v>
+      </c>
+      <c r="G206">
+        <v>0.8286089288209634</v>
+      </c>
+      <c r="H206">
+        <v>-0.02078514071209492</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>50205</v>
+      </c>
+      <c r="C207">
+        <v>13029.36340503291</v>
+      </c>
+      <c r="D207">
+        <v>-39996.76092895307</v>
+      </c>
+      <c r="E207">
+        <v>-136.6653169799216</v>
+      </c>
+      <c r="F207">
+        <v>2.911020553233838</v>
+      </c>
+      <c r="G207">
+        <v>0.9924515268022209</v>
+      </c>
+      <c r="H207">
+        <v>-0.02028303163738656</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>50206</v>
+      </c>
+      <c r="C208">
+        <v>15222.50918416855</v>
+      </c>
+      <c r="D208">
+        <v>-39184.95480879807</v>
+      </c>
+      <c r="E208">
+        <v>-153.9657132161664</v>
+      </c>
+      <c r="F208">
+        <v>2.853189274433036</v>
+      </c>
+      <c r="G208">
+        <v>1.153576479636625</v>
+      </c>
+      <c r="H208">
+        <v>-0.0197228187784136</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>50207</v>
+      </c>
+      <c r="C209">
+        <v>17368.74712568167</v>
+      </c>
+      <c r="D209">
+        <v>-38251.42878885724</v>
+      </c>
+      <c r="E209">
+        <v>-171.1801889092487</v>
+      </c>
+      <c r="F209">
+        <v>2.786404898486585</v>
+      </c>
+      <c r="G209">
+        <v>1.311478296849207</v>
+      </c>
+      <c r="H209">
+        <v>-0.01911487992974476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>50208</v>
+      </c>
+      <c r="C210">
+        <v>19461.04348836158</v>
+      </c>
+      <c r="D210">
+        <v>-37198.87083519216</v>
+      </c>
+      <c r="E210">
+        <v>-188.0658003239087</v>
+      </c>
+      <c r="F210">
+        <v>2.710839085667981</v>
+      </c>
+      <c r="G210">
+        <v>1.465650081913994</v>
+      </c>
+      <c r="H210">
+        <v>-0.0184660823115534</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>50209</v>
+      </c>
+      <c r="C211">
+        <v>21492.46735038569</v>
+      </c>
+      <c r="D211">
+        <v>-36030.51090140703</v>
+      </c>
+      <c r="E211">
+        <v>-204.3465976857997</v>
+      </c>
+      <c r="F211">
+        <v>2.626691784543623</v>
+      </c>
+      <c r="G211">
+        <v>1.615583735933238</v>
+      </c>
+      <c r="H211">
+        <v>-0.017777478255153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>50210</v>
+      </c>
+      <c r="C212">
+        <v>23456.3092203561</v>
+      </c>
+      <c r="D212">
+        <v>-34750.0686075286</v>
+      </c>
+      <c r="E212">
+        <v>-219.7724509225252</v>
+      </c>
+      <c r="F212">
+        <v>2.534193446505964</v>
+      </c>
+      <c r="G212">
+        <v>1.76077386708545</v>
+      </c>
+      <c r="H212">
+        <v>-0.01704374431100292</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>50211</v>
+      </c>
+      <c r="C213">
+        <v>25346.16871522207</v>
+      </c>
+      <c r="D213">
+        <v>-33361.65733512444</v>
+      </c>
+      <c r="E213">
+        <v>-234.1717965192175</v>
+      </c>
+      <c r="F213">
+        <v>2.433607136836169</v>
+      </c>
+      <c r="G213">
+        <v>1.900724718021728</v>
+      </c>
+      <c r="H213">
+        <v>-0.01625472088376508</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>50212</v>
+      </c>
+      <c r="C214">
+        <v>27155.98644314851</v>
+      </c>
+      <c r="D214">
+        <v>-31869.6935337035</v>
+      </c>
+      <c r="E214">
+        <v>-247.4780340718615</v>
+      </c>
+      <c r="F214">
+        <v>2.325228962837539</v>
+      </c>
+      <c r="G214">
+        <v>2.034957841699202</v>
+      </c>
+      <c r="H214">
+        <v>-0.01539838108894716</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>50213</v>
+      </c>
+      <c r="C215">
+        <v>28880.03430129886</v>
+      </c>
+      <c r="D215">
+        <v>-30278.84455509204</v>
+      </c>
+      <c r="E215">
+        <v>-259.7237709916411</v>
+      </c>
+      <c r="F215">
+        <v>2.209386064674904</v>
+      </c>
+      <c r="G215">
+        <v>2.163018122057872</v>
+      </c>
+      <c r="H215">
+        <v>-0.01446407541709628</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>50214</v>
+      </c>
+      <c r="C216">
+        <v>30512.89390959782</v>
+      </c>
+      <c r="D216">
+        <v>-28594.0154683572</v>
+      </c>
+      <c r="E216">
+        <v>-271.0109819994399</v>
+      </c>
+      <c r="F216">
+        <v>2.086432852537337</v>
+      </c>
+      <c r="G216">
+        <v>2.284476882375706</v>
+      </c>
+      <c r="H216">
+        <v>-0.01344510352355868</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>50215</v>
+      </c>
+      <c r="C217">
+        <v>32049.44218212024</v>
+      </c>
+      <c r="D217">
+        <v>-26820.35637959913</v>
+      </c>
+      <c r="E217">
+        <v>-281.4708305172891</v>
+      </c>
+      <c r="F217">
+        <v>1.956747044434348</v>
+      </c>
+      <c r="G217">
+        <v>2.398932274351347</v>
+      </c>
+      <c r="H217">
+        <v>-0.01234015826748063</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>50216</v>
+      </c>
+      <c r="C218">
+        <v>33484.84677429746</v>
+      </c>
+      <c r="D218">
+        <v>-24963.27381104232</v>
+      </c>
+      <c r="E218">
+        <v>-291.2251498995898</v>
+      </c>
+      <c r="F218">
+        <v>1.820726857340453</v>
+      </c>
+      <c r="G218">
+        <v>2.506008039990923</v>
+      </c>
+      <c r="H218">
+        <v>-0.0111535930357589</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>50217</v>
+      </c>
+      <c r="C219">
+        <v>34814.56712502422</v>
+      </c>
+      <c r="D219">
+        <v>-23028.44004966925</v>
+      </c>
+      <c r="E219">
+        <v>-300.3570336736902</v>
+      </c>
+      <c r="F219">
+        <v>1.678789873362286</v>
+      </c>
+      <c r="G219">
+        <v>2.605351879140001</v>
+      </c>
+      <c r="H219">
+        <v>-0.009894682310184387</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>50218</v>
+      </c>
+      <c r="C220">
+        <v>36034.35885866993</v>
+      </c>
+      <c r="D220">
+        <v>-21021.80090746629</v>
+      </c>
+      <c r="E220">
+        <v>-308.8939976089513</v>
+      </c>
+      <c r="F220">
+        <v>1.53137330049038</v>
+      </c>
+      <c r="G220">
+        <v>2.696634334361253</v>
+      </c>
+      <c r="H220">
+        <v>-0.008576147815297398</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>50219</v>
+      </c>
+      <c r="C221">
+        <v>37140.28368528978</v>
+      </c>
+      <c r="D221">
+        <v>-18949.5820486727</v>
+      </c>
+      <c r="E221">
+        <v>-316.8044268590998</v>
+      </c>
+      <c r="F221">
+        <v>1.378934880247971</v>
+      </c>
+      <c r="G221">
+        <v>2.779548680078987</v>
+      </c>
+      <c r="H221">
+        <v>-0.007212287995482031</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>50220</v>
+      </c>
+      <c r="C222">
+        <v>38128.72843245516</v>
+      </c>
+      <c r="D222">
+        <v>-16818.29033088643</v>
+      </c>
+      <c r="E222">
+        <v>-324.0058156172814</v>
+      </c>
+      <c r="F222">
+        <v>1.221953570383956</v>
+      </c>
+      <c r="G222">
+        <v>2.853811932855706</v>
+      </c>
+      <c r="H222">
+        <v>-0.0058170931193737</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>50221</v>
+      </c>
+      <c r="C223">
+        <v>38996.43424443419</v>
+      </c>
+      <c r="D223">
+        <v>-14634.70418610252</v>
+      </c>
+      <c r="E223">
+        <v>-330.3812607195659</v>
+      </c>
+      <c r="F223">
+        <v>1.060929291481323</v>
+      </c>
+      <c r="G223">
+        <v>2.919166795549702</v>
+      </c>
+      <c r="H223">
+        <v>-0.004402712282654359</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>50222</v>
+      </c>
+      <c r="C224">
+        <v>39740.53235819062</v>
+      </c>
+      <c r="D224">
+        <v>-12405.84858309531</v>
+      </c>
+      <c r="E224">
+        <v>-335.7992823688606</v>
+      </c>
+      <c r="F224">
+        <v>0.8963813999949967</v>
+      </c>
+      <c r="G224">
+        <v>2.975384122015643</v>
+      </c>
+      <c r="H224">
+        <v>-0.002978524378620612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>50223</v>
+      </c>
+      <c r="C225">
+        <v>40358.57953150941</v>
+      </c>
+      <c r="D225">
+        <v>-10138.95482594089</v>
+      </c>
+      <c r="E225">
+        <v>-340.1320702503701</v>
+      </c>
+      <c r="F225">
+        <v>0.7288459939517539</v>
+      </c>
+      <c r="G225">
+        <v>3.022265396569051</v>
+      </c>
+      <c r="H225">
+        <v>-0.001550873429730961</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>50224</v>
+      </c>
+      <c r="C226">
+        <v>40848.58626452748</v>
+      </c>
+      <c r="D226">
+        <v>-7841.410234039439</v>
+      </c>
+      <c r="E226">
+        <v>-343.2688010864852</v>
+      </c>
+      <c r="F226">
+        <v>0.5588724807617036</v>
+      </c>
+      <c r="G226">
+        <v>3.059644795478699</v>
+      </c>
+      <c r="H226">
+        <v>-0.0001233380354633598</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>50225</v>
+      </c>
+      <c r="C227">
+        <v>41209.03396805056</v>
+      </c>
+      <c r="D227">
+        <v>-5520.70474817356</v>
+      </c>
+      <c r="E227">
+        <v>-345.1229936612917</v>
+      </c>
+      <c r="F227">
+        <v>0.3870199205351397</v>
+      </c>
+      <c r="G227">
+        <v>3.087390585987454</v>
+      </c>
+      <c r="H227">
+        <v>0.001302704555897482</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>50226</v>
+      </c>
+      <c r="C228">
+        <v>41438.88096703376</v>
+      </c>
+      <c r="D228">
+        <v>-3184.380103172244</v>
+      </c>
+      <c r="E228">
+        <v>-345.6349222500075</v>
+      </c>
+      <c r="F228">
+        <v>0.2138535292741671</v>
+      </c>
+      <c r="G228">
+        <v>3.105405818438487</v>
+      </c>
+      <c r="H228">
+        <v>0.00272745859603943</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>50227</v>
+      </c>
+      <c r="C229">
+        <v>41537.55960346218</v>
+      </c>
+      <c r="D229">
+        <v>-839.9838948997304</v>
+      </c>
+      <c r="E229">
+        <v>-344.7712563777503</v>
+      </c>
+      <c r="F229">
+        <v>0.03994150956956816</v>
+      </c>
+      <c r="G229">
+        <v>3.113628396042268</v>
+      </c>
+      <c r="H229">
+        <v>0.004152190512496559</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>50228</v>
+      </c>
+      <c r="C230">
+        <v>41504.96698249279</v>
+      </c>
+      <c r="D230">
+        <v>1504.972227273687</v>
+      </c>
+      <c r="E230">
+        <v>-342.5242849271438</v>
+      </c>
+      <c r="F230">
+        <v>-0.1341477996915262</v>
+      </c>
+      <c r="G230">
+        <v>3.112030645350859</v>
+      </c>
+      <c r="H230">
+        <v>0.005578851690593791</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>50229</v>
+      </c>
+      <c r="C231">
+        <v>41341.45061092063</v>
+      </c>
+      <c r="D231">
+        <v>3843.05247212764</v>
+      </c>
+      <c r="E231">
+        <v>-338.9125883910858</v>
+      </c>
+      <c r="F231">
+        <v>-0.307848534398608</v>
+      </c>
+      <c r="G231">
+        <v>3.100618496437228</v>
+      </c>
+      <c r="H231">
+        <v>0.00700977511776955</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>50230</v>
+      </c>
+      <c r="C232">
+        <v>41047.78838601261</v>
+      </c>
+      <c r="D232">
+        <v>6166.936337732807</v>
+      </c>
+      <c r="E232">
+        <v>-333.9840512012731</v>
+      </c>
+      <c r="F232">
+        <v>-0.4805997143941365</v>
+      </c>
+      <c r="G232">
+        <v>3.079430376993987</v>
+      </c>
+      <c r="H232">
+        <v>0.008447289077867673</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>50231</v>
+      </c>
+      <c r="C233">
+        <v>40625.1613611804</v>
+      </c>
+      <c r="D233">
+        <v>8469.455672098449</v>
+      </c>
+      <c r="E233">
+        <v>-327.8205884341616</v>
+      </c>
+      <c r="F233">
+        <v>-0.6518473542442564</v>
+      </c>
+      <c r="G233">
+        <v>3.048535989541358</v>
+      </c>
+      <c r="H233">
+        <v>0.009893037076606848</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>50232</v>
+      </c>
+      <c r="C234">
+        <v>40075.11891520308</v>
+      </c>
+      <c r="D234">
+        <v>10743.62195419192</v>
+      </c>
+      <c r="E234">
+        <v>-320.5416731237048</v>
+      </c>
+      <c r="F234">
+        <v>-0.8210460051655634</v>
+      </c>
+      <c r="G234">
+        <v>3.008035306916297</v>
+      </c>
+      <c r="H234">
+        <v>0.01134681335351357</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>50233</v>
+      </c>
+      <c r="C235">
+        <v>39399.5408174436</v>
+      </c>
+      <c r="D235">
+        <v>12982.6307280432</v>
+      </c>
+      <c r="E235">
+        <v>-312.3008882927244</v>
+      </c>
+      <c r="F235">
+        <v>-0.9876593632327781</v>
+      </c>
+      <c r="G235">
+        <v>2.958058333216758</v>
+      </c>
+      <c r="H235">
+        <v>0.01280490008839644</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>50234</v>
+      </c>
+      <c r="C236">
+        <v>38600.60883057761</v>
+      </c>
+      <c r="D236">
+        <v>15179.83009228889</v>
+      </c>
+      <c r="E236">
+        <v>-303.2679368942934</v>
+      </c>
+      <c r="F236">
+        <v>-1.151159781690126</v>
+      </c>
+      <c r="G236">
+        <v>2.89876621164398</v>
+      </c>
+      <c r="H236">
+        <v>0.01425830562040241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>50235</v>
+      </c>
+      <c r="C237">
+        <v>37680.8063551305</v>
+      </c>
+      <c r="D237">
+        <v>17328.65417655185</v>
+      </c>
+      <c r="E237">
+        <v>-293.5914822867137</v>
+      </c>
+      <c r="F237">
+        <v>-1.311027229447875</v>
+      </c>
+      <c r="G237">
+        <v>2.830353739783227</v>
+      </c>
+      <c r="H237">
+        <v>0.01569186880288399</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>50236</v>
+      </c>
+      <c r="C238">
+        <v>36642.95717723158</v>
+      </c>
+      <c r="D238">
+        <v>19422.55172107444</v>
+      </c>
+      <c r="E238">
+        <v>-283.3492099155242</v>
+      </c>
+      <c r="F238">
+        <v>-1.466749221828395</v>
+      </c>
+      <c r="G238">
+        <v>2.75305212081676</v>
+      </c>
+      <c r="H238">
+        <v>0.01708546690649468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>50237</v>
+      </c>
+      <c r="C239">
+        <v>35490.28837527802</v>
+      </c>
+      <c r="D239">
+        <v>21454.9637254077</v>
+      </c>
+      <c r="E239">
+        <v>-272.5071730680888</v>
+      </c>
+      <c r="F239">
+        <v>-1.617823516683676</v>
+      </c>
+      <c r="G239">
+        <v>2.667129571520146</v>
+      </c>
+      <c r="H239">
+        <v>0.01841788004020864</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>50238</v>
+      </c>
+      <c r="C240">
+        <v>34226.47563247883</v>
+      </c>
+      <c r="D240">
+        <v>23419.38832311996</v>
+      </c>
+      <c r="E240">
+        <v>-260.9167827615747</v>
+      </c>
+      <c r="F240">
+        <v>-1.763763856771698</v>
+      </c>
+      <c r="G240">
+        <v>2.572887794020237</v>
+      </c>
+      <c r="H240">
+        <v>0.01967215923300509</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>50239</v>
+      </c>
+      <c r="C241">
+        <v>32855.63398516617</v>
+      </c>
+      <c r="D241">
+        <v>25309.51248107976</v>
+      </c>
+      <c r="E241">
+        <v>-248.3613519078471</v>
+      </c>
+      <c r="F241">
+        <v>-1.904106456381924</v>
+      </c>
+      <c r="G241">
+        <v>2.47065488848503</v>
+      </c>
+      <c r="H241">
+        <v>0.0208398704093508</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>50240.00000000001</v>
+      </c>
+      <c r="C242">
+        <v>31382.25699944053</v>
+      </c>
+      <c r="D242">
+        <v>27119.34162325437</v>
+      </c>
+      <c r="E242">
+        <v>-234.6327850812698</v>
+      </c>
+      <c r="F242">
+        <v>-2.038413927474081</v>
+      </c>
+      <c r="G242">
+        <v>2.360777982976144</v>
+      </c>
+      <c r="H242">
+        <v>0.02192196153383157</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>50241</v>
+      </c>
+      <c r="C243">
+        <v>29811.14224445192</v>
+      </c>
+      <c r="D243">
+        <v>28843.26971531238</v>
+      </c>
+      <c r="E243">
+        <v>-219.6003371244706</v>
+      </c>
+      <c r="F243">
+        <v>-2.166275277003954</v>
+      </c>
+      <c r="G243">
+        <v>2.243618908753298</v>
+      </c>
+      <c r="H243">
+        <v>0.02292613524110938</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>50242</v>
+      </c>
+      <c r="C244">
+        <v>28147.3378981201</v>
+      </c>
+      <c r="D244">
+        <v>30476.08438431623</v>
+      </c>
+      <c r="E244">
+        <v>-203.2433715989997</v>
+      </c>
+      <c r="F244">
+        <v>-2.287303425933505</v>
+      </c>
+      <c r="G244">
+        <v>2.119553762227322</v>
+      </c>
+      <c r="H244">
+        <v>0.02386256388222476</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>50243</v>
+      </c>
+      <c r="C245">
+        <v>26396.11839247703</v>
+      </c>
+      <c r="D245">
+        <v>32012.93840200486</v>
+      </c>
+      <c r="E245">
+        <v>-185.6454365858677</v>
+      </c>
+      <c r="F245">
+        <v>-2.401132702014197</v>
+      </c>
+      <c r="G245">
+        <v>1.988974843182783</v>
+      </c>
+      <c r="H245">
+        <v>0.02474007041929221</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>50244</v>
+      </c>
+      <c r="C246">
+        <v>24562.97728731593</v>
+      </c>
+      <c r="D246">
+        <v>33449.31924280675</v>
+      </c>
+      <c r="E246">
+        <v>-166.9648584352629</v>
+      </c>
+      <c r="F246">
+        <v>-2.507417815343617</v>
+      </c>
+      <c r="G246">
+        <v>1.852292948005649</v>
+      </c>
+      <c r="H246">
+        <v>0.02556388446282171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>50245</v>
+      </c>
+      <c r="C247">
+        <v>22653.62348711821</v>
+      </c>
+      <c r="D247">
+        <v>34781.0308565803</v>
+      </c>
+      <c r="E247">
+        <v>-147.3993093531953</v>
+      </c>
+      <c r="F247">
+        <v>-2.605834497508893</v>
+      </c>
+      <c r="G247">
+        <v>1.709938802227898</v>
+      </c>
+      <c r="H247">
+        <v>0.02633497671533094</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>50246</v>
+      </c>
+      <c r="C248">
+        <v>20673.97386603662</v>
+      </c>
+      <c r="D248">
+        <v>36004.18753785692</v>
+      </c>
+      <c r="E248">
+        <v>-127.1550732892447</v>
+      </c>
+      <c r="F248">
+        <v>-2.696081294082003</v>
+      </c>
+      <c r="G248">
+        <v>1.562363321439841</v>
+      </c>
+      <c r="H248">
+        <v>0.02705044676459057</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>50247</v>
+      </c>
+      <c r="C249">
+        <v>18630.14187816705</v>
+      </c>
+      <c r="D249">
+        <v>37115.21490702432</v>
+      </c>
+      <c r="E249">
+        <v>-106.4246160348219</v>
+      </c>
+      <c r="F249">
+        <v>-2.777881909138528</v>
+      </c>
+      <c r="G249">
+        <v>1.410036834719509</v>
+      </c>
+      <c r="H249">
+        <v>0.02770442373063453</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>50248</v>
+      </c>
+      <c r="C250">
+        <v>16528.4244988046</v>
+      </c>
+      <c r="D250">
+        <v>38110.8542235603</v>
+      </c>
+      <c r="E250">
+        <v>-85.37218541188929</v>
+      </c>
+      <c r="F250">
+        <v>-2.850987624921536</v>
+      </c>
+      <c r="G250">
+        <v>1.253447478814744</v>
+      </c>
+      <c r="H250">
+        <v>0.02828912423435064</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>50249.00000000001</v>
+      </c>
+      <c r="C251">
+        <v>14375.28948477334</v>
+      </c>
+      <c r="D251">
+        <v>38988.16905616241</v>
+      </c>
+      <c r="E251">
+        <v>-64.12609344750391</v>
+      </c>
+      <c r="F251">
+        <v>-2.915179438085978</v>
+      </c>
+      <c r="G251">
+        <v>1.093098931400979</v>
+      </c>
+      <c r="H251">
+        <v>0.02879588427626776</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>50250</v>
+      </c>
+      <c r="C252">
+        <v>12177.36306507915</v>
+      </c>
+      <c r="D252">
+        <v>39744.55510651494</v>
+      </c>
+      <c r="E252">
+        <v>-42.77646212228716</v>
+      </c>
+      <c r="F252">
+        <v>-2.970269648085277</v>
+      </c>
+      <c r="G252">
+        <v>0.929507646277522</v>
+      </c>
+      <c r="H252">
+        <v>0.0292160780324824</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>50251</v>
+      </c>
+      <c r="C253">
+        <v>9941.416293586324</v>
+      </c>
+      <c r="D253">
+        <v>40377.75389276691</v>
+      </c>
+      <c r="E253">
+        <v>-21.37740388520575</v>
+      </c>
+      <c r="F253">
+        <v>-3.016102750078085</v>
+      </c>
+      <c r="G253">
+        <v>0.7631997939196761</v>
+      </c>
+      <c r="H253">
+        <v>0.02954187543489422</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>50252</v>
+      </c>
+      <c r="C254">
+        <v>7674.347758167252</v>
+      </c>
+      <c r="D254">
+        <v>40885.86946250206</v>
+      </c>
+      <c r="E254">
+        <v>0.04750296352138219</v>
+      </c>
+      <c r="F254">
+        <v>-3.052555629612526</v>
+      </c>
+      <c r="G254">
+        <v>0.594708158929745</v>
+      </c>
+      <c r="H254">
+        <v>0.02976680784643082</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>50253</v>
+      </c>
+      <c r="C255">
+        <v>5383.161137234347</v>
+      </c>
+      <c r="D255">
+        <v>41267.3856912449</v>
+      </c>
+      <c r="E255">
+        <v>21.49783606488838</v>
+      </c>
+      <c r="F255">
+        <v>-3.079537197260227</v>
+      </c>
+      <c r="G255">
+        <v>0.4245692263532012</v>
+      </c>
+      <c r="H255">
+        <v>0.02988613191154969</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>50254</v>
+      </c>
+      <c r="C256">
+        <v>3074.937942531658</v>
+      </c>
+      <c r="D256">
+        <v>41521.18104654674</v>
+      </c>
+      <c r="E256">
+        <v>42.98850856905923</v>
+      </c>
+      <c r="F256">
+        <v>-3.096987675151232</v>
+      </c>
+      <c r="G256">
+        <v>0.2533206177029079</v>
+      </c>
+      <c r="H256">
+        <v>0.0298970121672952</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>50255</v>
+      </c>
+      <c r="C257">
+        <v>756.8072150306285</v>
+      </c>
+      <c r="D257">
+        <v>41646.53842107335</v>
+      </c>
+      <c r="E257">
+        <v>64.5426491901175</v>
+      </c>
+      <c r="F257">
+        <v>-3.10487774049763</v>
+      </c>
+      <c r="G257">
+        <v>0.08149891835243978</v>
+      </c>
+      <c r="H257">
+        <v>0.02979857548898271</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>50256</v>
+      </c>
+      <c r="C258">
+        <v>-1564.085483276766</v>
+      </c>
+      <c r="D258">
+        <v>41643.14912713695</v>
+      </c>
+      <c r="E258">
+        <v>86.18562324407699</v>
+      </c>
+      <c r="F258">
+        <v>-3.103207657139533</v>
+      </c>
+      <c r="G258">
+        <v>-0.0903621578556698</v>
+      </c>
+      <c r="H258">
+        <v>0.02959191120959409</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>50257</v>
+      </c>
+      <c r="C259">
+        <v>-3880.607872352963</v>
+      </c>
+      <c r="D259">
+        <v>41511.11159715663</v>
+      </c>
+      <c r="E259">
+        <v>107.9397126894262</v>
+      </c>
+      <c r="F259">
+        <v>-3.092006432296873</v>
+      </c>
+      <c r="G259">
+        <v>-0.26173336985792</v>
+      </c>
+      <c r="H259">
+        <v>0.02928008756475215</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>50258</v>
+      </c>
+      <c r="C260">
+        <v>-6185.668366253261</v>
+      </c>
+      <c r="D260">
+        <v>41250.92617959286</v>
+      </c>
+      <c r="E260">
+        <v>129.8180517968008</v>
+      </c>
+      <c r="F260">
+        <v>-3.071330961477477</v>
+      </c>
+      <c r="G260">
+        <v>-0.4320913976216541</v>
+      </c>
+      <c r="H260">
+        <v>0.02886821920135972</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>50259</v>
+      </c>
+      <c r="C261">
+        <v>-8472.240215833954</v>
+      </c>
+      <c r="D261">
+        <v>40863.4876999846</v>
+      </c>
+      <c r="E261">
+        <v>151.8157734489574</v>
+      </c>
+      <c r="F261">
+        <v>-3.041265100151251</v>
+      </c>
+      <c r="G261">
+        <v>-0.6009201260400643</v>
+      </c>
+      <c r="H261">
+        <v>0.02836354422767843</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>50260</v>
+      </c>
+      <c r="C262">
+        <v>-10733.38107400714</v>
+      </c>
+      <c r="D262">
+        <v>40350.07761616171</v>
+      </c>
+      <c r="E262">
+        <v>173.8964437005826</v>
+      </c>
+      <c r="F262">
+        <v>-3.001918650290066</v>
+      </c>
+      <c r="G262">
+        <v>-0.7677116045649028</v>
+      </c>
+      <c r="H262">
+        <v>0.02777534750180935</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>50261</v>
+      </c>
+      <c r="C263">
+        <v>-12962.24591348077</v>
+      </c>
+      <c r="D263">
+        <v>39712.35807384982</v>
+      </c>
+      <c r="E263">
+        <v>195.9736296511774</v>
+      </c>
+      <c r="F263">
+        <v>-2.953426394597288</v>
+      </c>
+      <c r="G263">
+        <v>-0.9319663642216028</v>
+      </c>
+      <c r="H263">
+        <v>0.02711441573253783</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>50262</v>
+      </c>
+      <c r="C264">
+        <v>-15152.09184806517</v>
+      </c>
+      <c r="D264">
+        <v>38952.37066587387</v>
+      </c>
+      <c r="E264">
+        <v>217.8919248247885</v>
+      </c>
+      <c r="F264">
+        <v>-2.895947538054037</v>
+      </c>
+      <c r="G264">
+        <v>-1.093192753430869</v>
+      </c>
+      <c r="H264">
+        <v>0.02639161334333134</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>50263</v>
+      </c>
+      <c r="C265">
+        <v>-17296.27807200715</v>
+      </c>
+      <c r="D265">
+        <v>38072.54125240583</v>
+      </c>
+      <c r="E265">
+        <v>239.4187684861232</v>
+      </c>
+      <c r="F265">
+        <v>-2.829666089541723</v>
+      </c>
+      <c r="G265">
+        <v>-1.250905349835445</v>
+      </c>
+      <c r="H265">
+        <v>0.02561532448814141</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>50264</v>
+      </c>
+      <c r="C266">
+        <v>-19388.27350881134</v>
+      </c>
+      <c r="D266">
+        <v>37075.68545736585</v>
+      </c>
+      <c r="E266">
+        <v>260.2636456828052</v>
+      </c>
+      <c r="F266">
+        <v>-2.754792504402202</v>
+      </c>
+      <c r="G266">
+        <v>-1.404623543271342</v>
+      </c>
+      <c r="H266">
+        <v>0.02478815869281823</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>50265</v>
+      </c>
+      <c r="C267">
+        <v>-21421.69090228943</v>
+      </c>
+      <c r="D267">
+        <v>35964.99780530122</v>
+      </c>
+      <c r="E267">
+        <v>280.1352483347164</v>
+      </c>
+      <c r="F267">
+        <v>-2.671566002070107</v>
+      </c>
+      <c r="G267">
+        <v>-1.553872597531978</v>
+      </c>
+      <c r="H267">
+        <v>0.02390439729610344</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>50266</v>
+      </c>
+      <c r="C268">
+        <v>-23390.3524537453</v>
+      </c>
+      <c r="D268">
+        <v>34744.00382054595</v>
+      </c>
+      <c r="E268">
+        <v>298.8233365383171</v>
+      </c>
+      <c r="F268">
+        <v>-2.580255771608347</v>
+      </c>
+      <c r="G268">
+        <v>-1.698189245710638</v>
+      </c>
+      <c r="H268">
+        <v>0.02295031959136654</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>50267</v>
+      </c>
+      <c r="C269">
+        <v>-25288.3570081239</v>
+      </c>
+      <c r="D269">
+        <v>33416.47797291003</v>
+      </c>
+      <c r="E269">
+        <v>316.2633228838778</v>
+      </c>
+      <c r="F269">
+        <v>-2.481159192520294</v>
+      </c>
+      <c r="G269">
+        <v>-1.837130813643026</v>
+      </c>
+      <c r="H269">
+        <v>0.02190851334849216</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>50268</v>
+      </c>
+      <c r="C270">
+        <v>-27110.09920765665</v>
+      </c>
+      <c r="D270">
+        <v>31986.37199551156</v>
+      </c>
+      <c r="E270">
+        <v>332.5400810067653</v>
+      </c>
+      <c r="F270">
+        <v>-2.374597152017515</v>
+      </c>
+      <c r="G270">
+        <v>-1.970283015096051</v>
+      </c>
+      <c r="H270">
+        <v>0.02076457005205109</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>50269</v>
+      </c>
+      <c r="C271">
+        <v>-28850.22542306481</v>
+      </c>
+      <c r="D271">
+        <v>30457.80729424217</v>
+      </c>
+      <c r="E271">
+        <v>347.8263968983587</v>
+      </c>
+      <c r="F271">
+        <v>-2.260908923021734</v>
+      </c>
+      <c r="G271">
+        <v>-2.0972616306778</v>
+      </c>
+      <c r="H271">
+        <v>0.01951254605041795</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>50270</v>
+      </c>
+      <c r="C272">
+        <v>-30503.56860055165</v>
+      </c>
+      <c r="D272">
+        <v>28835.13706478896</v>
+      </c>
+      <c r="E272">
+        <v>362.2963000050436</v>
+      </c>
+      <c r="F272">
+        <v>-2.140449240637684</v>
+      </c>
+      <c r="G272">
+        <v>-2.217708071434714</v>
+      </c>
+      <c r="H272">
+        <v>0.01815649141983522</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>50271</v>
+      </c>
+      <c r="C273">
+        <v>-32065.11688665731</v>
+      </c>
+      <c r="D273">
+        <v>27123.02966944159</v>
+      </c>
+      <c r="E273">
+        <v>376.0608305606659</v>
+      </c>
+      <c r="F273">
+        <v>-2.013588160815275</v>
+      </c>
+      <c r="G273">
+        <v>-2.331283138729943</v>
+      </c>
+      <c r="H273">
+        <v>0.01670823402515587</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>50272</v>
+      </c>
+      <c r="C274">
+        <v>-33530.03344783909</v>
+      </c>
+      <c r="D274">
+        <v>25326.52126404474</v>
+      </c>
+      <c r="E274">
+        <v>389.1457392948661</v>
+      </c>
+      <c r="F274">
+        <v>-1.880712401472247</v>
+      </c>
+      <c r="G274">
+        <v>-2.437663115514519</v>
+      </c>
+      <c r="H274">
+        <v>0.01518356747666898</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>50273</v>
+      </c>
+      <c r="C275">
+        <v>-34893.7081020328</v>
+      </c>
+      <c r="D275">
+        <v>23451.02050635318</v>
+      </c>
+      <c r="E275">
+        <v>401.5016872059099</v>
+      </c>
+      <c r="F275">
+        <v>-1.742226576569665</v>
+      </c>
+      <c r="G275">
+        <v>-2.53653938586445</v>
+      </c>
+      <c r="H275">
+        <v>0.01359885537839804</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>50274</v>
+      </c>
+      <c r="C276">
+        <v>-36151.81404222817</v>
+      </c>
+      <c r="D276">
+        <v>21502.2778216691</v>
+      </c>
+      <c r="E276">
+        <v>413.0280442046064</v>
+      </c>
+      <c r="F276">
+        <v>-1.598553475825135</v>
+      </c>
+      <c r="G276">
+        <v>-2.627620520500156</v>
+      </c>
+      <c r="H276">
+        <v>0.01196889057040125</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>50275</v>
+      </c>
+      <c r="C277">
+        <v>-37300.35411188264</v>
+      </c>
+      <c r="D277">
+        <v>19486.33883506923</v>
+      </c>
+      <c r="E277">
+        <v>423.5966154405882</v>
+      </c>
+      <c r="F277">
+        <v>-1.450133297385814</v>
+      </c>
+      <c r="G277">
+        <v>-2.71063528242152</v>
+      </c>
+      <c r="H277">
+        <v>0.010305911485081</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>50276</v>
+      </c>
+      <c r="C278">
+        <v>-38335.69279313617</v>
+      </c>
+      <c r="D278">
+        <v>17409.49537567449</v>
+      </c>
+      <c r="E278">
+        <v>433.0698963516671</v>
+      </c>
+      <c r="F278">
+        <v>-1.29742209615695</v>
+      </c>
+      <c r="G278">
+        <v>-2.785335510132373</v>
+      </c>
+      <c r="H278">
+        <v>0.00861934905499495</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>50277</v>
+      </c>
+      <c r="C279">
+        <v>-39254.57571269126</v>
+      </c>
+      <c r="D279">
+        <v>15278.23995121981</v>
+      </c>
+      <c r="E279">
+        <v>441.3137399652059</v>
+      </c>
+      <c r="F279">
+        <v>-1.140889761135012</v>
+      </c>
+      <c r="G279">
+        <v>-2.851498435952085</v>
+      </c>
+      <c r="H279">
+        <v>0.006915936164533041</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>50278</v>
+      </c>
+      <c r="C280">
+        <v>-40054.13967524357</v>
+      </c>
+      <c r="D280">
+        <v>13099.22543948951</v>
+      </c>
+      <c r="E280">
+        <v>448.2061558038822</v>
+      </c>
+      <c r="F280">
+        <v>-0.9810177712999785</v>
+      </c>
+      <c r="G280">
+        <v>-2.908928357292579</v>
+      </c>
+      <c r="H280">
+        <v>0.005199978303066837</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>50279</v>
+      </c>
+      <c r="C281">
+        <v>-40731.91591764897</v>
+      </c>
+      <c r="D281">
+        <v>10879.23047152969</v>
+      </c>
+      <c r="E281">
+        <v>453.6438211975548</v>
+      </c>
+      <c r="F281">
+        <v>-0.8182969102813471</v>
+      </c>
+      <c r="G281">
+        <v>-2.957457720847744</v>
+      </c>
+      <c r="H281">
+        <v>0.003473714450080294</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>50280</v>
+      </c>
+      <c r="C282">
+        <v>-41285.82897995254</v>
+      </c>
+      <c r="D282">
+        <v>8625.130801081707</v>
+      </c>
+      <c r="E282">
+        <v>457.5471066210943</v>
+      </c>
+      <c r="F282">
+        <v>-0.6532250700136226</v>
+      </c>
+      <c r="G282">
+        <v>-2.996947711890333</v>
+      </c>
+      <c r="H282">
+        <v>0.00173775688300388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>50281</v>
+      </c>
+      <c r="C283">
+        <v>-41714.19353437989</v>
+      </c>
+      <c r="D283">
+        <v>6343.876619286659</v>
+      </c>
+      <c r="E283">
+        <v>459.8637484793027</v>
+      </c>
+      <c r="F283">
+        <v>-0.4863052325729901</v>
+      </c>
+      <c r="G283">
+        <v>-3.027288440201667</v>
+      </c>
+      <c r="H283">
+        <v>-8.396456184516544e-06</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>50282</v>
+      </c>
+      <c r="C284">
+        <v>-42015.71134621308</v>
+      </c>
+      <c r="D284">
+        <v>4042.47496117106</v>
+      </c>
+      <c r="E284">
+        <v>460.5710344377566</v>
+      </c>
+      <c r="F284">
+        <v>-0.3180436784439341</v>
+      </c>
+      <c r="G284">
+        <v>-3.048398811643516</v>
+      </c>
+      <c r="H284">
+        <v>-0.001765802479648493</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>50283</v>
+      </c>
+      <c r="C285">
+        <v>-42189.46996634155</v>
+      </c>
+      <c r="D285">
+        <v>1727.975415505093</v>
+      </c>
+      <c r="E285">
+        <v>459.6764778590691</v>
+      </c>
+      <c r="F285">
+        <v>-0.1489484329688748</v>
+      </c>
+      <c r="G285">
+        <v>-3.06022617400359</v>
+      </c>
+      <c r="H285">
+        <v>-0.003535506683802825</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>50284</v>
+      </c>
+      <c r="C286">
+        <v>-42234.94381052414</v>
+      </c>
+      <c r="D286">
+        <v>-592.5431854094402</v>
+      </c>
+      <c r="E286">
+        <v>457.2172357779102</v>
+      </c>
+      <c r="F286">
+        <v>0.02047205961559285</v>
+      </c>
+      <c r="G286">
+        <v>-3.062745826141671</v>
+      </c>
+      <c r="H286">
+        <v>-0.005318004707544862</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>50285</v>
+      </c>
+      <c r="C287">
+        <v>-42151.9972652578</v>
+      </c>
+      <c r="D287">
+        <v>-2911.987268897111</v>
+      </c>
+      <c r="E287">
+        <v>453.2586786579475</v>
+      </c>
+      <c r="F287">
+        <v>0.1897100495655181</v>
+      </c>
+      <c r="G287">
+        <v>-3.055960483308235</v>
+      </c>
+      <c r="H287">
+        <v>-0.007112739521484572</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>50286</v>
+      </c>
+      <c r="C288">
+        <v>-41940.88866686074</v>
+      </c>
+      <c r="D288">
+        <v>-5223.265619514978</v>
+      </c>
+      <c r="E288">
+        <v>447.8922965911737</v>
+      </c>
+      <c r="F288">
+        <v>0.3582593931876012</v>
+      </c>
+      <c r="G288">
+        <v>-3.039899807245492</v>
+      </c>
+      <c r="H288">
+        <v>-0.008917607722993784</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>50287</v>
+      </c>
+      <c r="C289">
+        <v>-41602.27352172812</v>
+      </c>
+      <c r="D289">
+        <v>-7519.30931266375</v>
+      </c>
+      <c r="E289">
+        <v>441.2323887026498</v>
+      </c>
+      <c r="F289">
+        <v>0.5256162849960404</v>
+      </c>
+      <c r="G289">
+        <v>-3.014620144667414</v>
+      </c>
+      <c r="H289">
+        <v>-0.01072842923646448</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>50288</v>
+      </c>
+      <c r="C290">
+        <v>-41137.20514367964</v>
+      </c>
+      <c r="D290">
+        <v>-9793.093226148034</v>
+      </c>
+      <c r="E290">
+        <v>433.4097743699674</v>
+      </c>
+      <c r="F290">
+        <v>0.6912798917479699</v>
+      </c>
+      <c r="G290">
+        <v>-2.980204662640518</v>
+      </c>
+      <c r="H290">
+        <v>-0.01253835803491754</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>50289</v>
+      </c>
+      <c r="C291">
+        <v>-40547.13120935098</v>
+      </c>
+      <c r="D291">
+        <v>-12037.65590767344</v>
+      </c>
+      <c r="E291">
+        <v>424.5594603939568</v>
+      </c>
+      <c r="F291">
+        <v>0.8547530979198196</v>
+      </c>
+      <c r="G291">
+        <v>-2.9367640722976</v>
+      </c>
+      <c r="H291">
+        <v>-0.0143373050873285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>50290</v>
+      </c>
+      <c r="C292">
+        <v>-39833.88646094443</v>
+      </c>
+      <c r="D292">
+        <v>-14246.11251324517</v>
+      </c>
+      <c r="E292">
+        <v>414.7988151015408</v>
+      </c>
+      <c r="F292">
+        <v>1.01554373440979</v>
+      </c>
+      <c r="G292">
+        <v>-2.884437974617693</v>
+      </c>
+      <c r="H292">
+        <v>-0.01611162324347093</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>50291</v>
+      </c>
+      <c r="C293">
+        <v>-38999.68598264504</v>
+      </c>
+      <c r="D293">
+        <v>-16411.65583636398</v>
+      </c>
+      <c r="E293">
+        <v>404.1952556809031</v>
+      </c>
+      <c r="F293">
+        <v>1.173166704775013</v>
+      </c>
+      <c r="G293">
+        <v>-2.823396399541937</v>
+      </c>
+      <c r="H293">
+        <v>-0.01784453009485064</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>50292</v>
+      </c>
+      <c r="C294">
+        <v>-38047.12854559749</v>
+      </c>
+      <c r="D294">
+        <v>-18527.548692069</v>
+      </c>
+      <c r="E294">
+        <v>392.7298334920636</v>
+      </c>
+      <c r="F294">
+        <v>1.327147119581391</v>
+      </c>
+      <c r="G294">
+        <v>-2.753840371699297</v>
+      </c>
+      <c r="H294">
+        <v>-0.01951786257178277</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>50293</v>
+      </c>
+      <c r="C295">
+        <v>-36979.21705400621</v>
+      </c>
+      <c r="D295">
+        <v>-20587.1305108151</v>
+      </c>
+      <c r="E295">
+        <v>380.2745408768117</v>
+      </c>
+      <c r="F295">
+        <v>1.477023894892472</v>
+      </c>
+      <c r="G295">
+        <v>-2.675999843797771</v>
+      </c>
+      <c r="H295">
+        <v>-0.02111545351936372</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>50294</v>
+      </c>
+      <c r="C296">
+        <v>-35799.38242808951</v>
+      </c>
+      <c r="D296">
+        <v>-22583.87780491705</v>
+      </c>
+      <c r="E296">
+        <v>366.6081988931687</v>
+      </c>
+      <c r="F296">
+        <v>1.622352792793408</v>
+      </c>
+      <c r="G296">
+        <v>-2.590128082321703</v>
+      </c>
+      <c r="H296">
+        <v>-0.02262741356658286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>50295</v>
+      </c>
+      <c r="C297">
+        <v>-34511.46914902626</v>
+      </c>
+      <c r="D297">
+        <v>-24511.53533056855</v>
+      </c>
+      <c r="E297">
+        <v>351.4838161591015</v>
+      </c>
+      <c r="F297">
+        <v>1.762708160089107</v>
+      </c>
+      <c r="G297">
+        <v>-2.496494022715074</v>
+      </c>
+      <c r="H297">
+        <v>-0.02405322775654226</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>50296</v>
+      </c>
+      <c r="C298">
+        <v>-33119.65018630334</v>
+      </c>
+      <c r="D298">
+        <v>-26364.26068672823</v>
+      </c>
+      <c r="E298">
+        <v>334.7257175346369</v>
+      </c>
+      <c r="F298">
+        <v>1.897683286244125</v>
+      </c>
+      <c r="G298">
+        <v>-2.395376663083167</v>
+      </c>
+      <c r="H298">
+        <v>-0.0254012288348267</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>50297</v>
+      </c>
+      <c r="C299">
+        <v>-31628.30602604316</v>
+      </c>
+      <c r="D299">
+        <v>-28136.67543336753</v>
+      </c>
+      <c r="E299">
+        <v>316.304000841075</v>
+      </c>
+      <c r="F299">
+        <v>2.026889554137311</v>
+      </c>
+      <c r="G299">
+        <v>-2.287065189097286</v>
+      </c>
+      <c r="H299">
+        <v>-0.02668395718967161</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>50298</v>
+      </c>
+      <c r="C300">
+        <v>-30041.95435959238</v>
+      </c>
+      <c r="D300">
+        <v>-29823.77927047662</v>
+      </c>
+      <c r="E300">
+        <v>296.3440108719004</v>
+      </c>
+      <c r="F300">
+        <v>2.149954731288952</v>
+      </c>
+      <c r="G300">
+        <v>-2.171864500022306</v>
+      </c>
+      <c r="H300">
+        <v>-0.02791194799471606</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>50299</v>
+      </c>
+      <c r="C301">
+        <v>-28365.27595348069</v>
+      </c>
+      <c r="D301">
+        <v>-31420.80383159348</v>
+      </c>
+      <c r="E301">
+        <v>275.0752575318789</v>
+      </c>
+      <c r="F301">
+        <v>2.266521367239982</v>
+      </c>
+      <c r="G301">
+        <v>-2.05010193188553</v>
+      </c>
+      <c r="H301">
+        <v>-0.02908947465603467</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>50300</v>
+      </c>
+      <c r="C302">
+        <v>-26603.19721645349</v>
+      </c>
+      <c r="D302">
+        <v>-32923.11715552791</v>
+      </c>
+      <c r="E302">
+        <v>252.7601556856999</v>
+      </c>
+      <c r="F302">
+        <v>2.3762464671257</v>
+      </c>
+      <c r="G302">
+        <v>-1.922131096085178</v>
+      </c>
+      <c r="H302">
+        <v>-0.03021380305784436</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>50301</v>
+      </c>
+      <c r="C303">
+        <v>-24760.9601507355</v>
+      </c>
+      <c r="D303">
+        <v>-34326.22138578899</v>
+      </c>
+      <c r="E303">
+        <v>229.6395871679683</v>
+      </c>
+      <c r="F303">
+        <v>2.478802812068309</v>
+      </c>
+      <c r="G303">
+        <v>-1.788331796835183</v>
+      </c>
+      <c r="H303">
+        <v>-0.03127699900920915</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>50302</v>
+      </c>
+      <c r="C304">
+        <v>-22844.14407409564</v>
+      </c>
+      <c r="D304">
+        <v>-35625.81377673939</v>
+      </c>
+      <c r="E304">
+        <v>205.9072562640757</v>
+      </c>
+      <c r="F304">
+        <v>2.573881343334214</v>
+      </c>
+      <c r="G304">
+        <v>-1.649107403380787</v>
+      </c>
+      <c r="H304">
+        <v>-0.03226847195390171</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>50303</v>
+      </c>
+      <c r="C305">
+        <v>-20858.64393481801</v>
+      </c>
+      <c r="D305">
+        <v>-36817.86338790397</v>
+      </c>
+      <c r="E305">
+        <v>181.7059089624848</v>
+      </c>
+      <c r="F305">
+        <v>2.661193769101516</v>
+      </c>
+      <c r="G305">
+        <v>-1.504881417540259</v>
+      </c>
+      <c r="H305">
+        <v>-0.0331770432635204</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>50304</v>
+      </c>
+      <c r="C306">
+        <v>-18810.62531688523</v>
+      </c>
+      <c r="D306">
+        <v>-37898.67422400367</v>
+      </c>
+      <c r="E306">
+        <v>157.1338443486679</v>
+      </c>
+      <c r="F306">
+        <v>2.740474851702679</v>
+      </c>
+      <c r="G306">
+        <v>-1.356094230619489</v>
+      </c>
+      <c r="H306">
+        <v>-0.03399220687348523</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>50305</v>
+      </c>
+      <c r="C307">
+        <v>-16706.47248660866</v>
+      </c>
+      <c r="D307">
+        <v>-38864.92658451312</v>
+      </c>
+      <c r="E307">
+        <v>132.2535841157708</v>
+      </c>
+      <c r="F307">
+        <v>2.811484205007123</v>
+      </c>
+      <c r="G307">
+        <v>-1.203200320363709</v>
+      </c>
+      <c r="H307">
+        <v>-0.0347047524806972</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>50306</v>
+      </c>
+      <c r="C308">
+        <v>-14552.737691917</v>
+      </c>
+      <c r="D308">
+        <v>-39713.69907783507</v>
+      </c>
+      <c r="E308">
+        <v>107.0992700284214</v>
+      </c>
+      <c r="F308">
+        <v>2.874007634223451</v>
+      </c>
+      <c r="G308">
+        <v>-1.04666577430068</v>
+      </c>
+      <c r="H308">
+        <v>-0.0353070417919189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>50307</v>
+      </c>
+      <c r="C309">
+        <v>-12356.09470112634</v>
+      </c>
+      <c r="D309">
+        <v>-40442.47616412926</v>
+      </c>
+      <c r="E309">
+        <v>81.68251651068648</v>
+      </c>
+      <c r="F309">
+        <v>2.927858088962018</v>
+      </c>
+      <c r="G309">
+        <v>-0.8869659647764102</v>
+      </c>
+      <c r="H309">
+        <v>-0.03579316148212573</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>50308</v>
+      </c>
+      <c r="C310">
+        <v>-10123.29795403245</v>
+      </c>
+      <c r="D310">
+        <v>-41049.14527034552</v>
+      </c>
+      <c r="E310">
+        <v>55.9978518883058</v>
+      </c>
+      <c r="F310">
+        <v>2.972876261904907</v>
+      </c>
+      <c r="G310">
+        <v>-0.7245832872517667</v>
+      </c>
+      <c r="H310">
+        <v>-0.03615906536995622</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>50309</v>
+      </c>
+      <c r="C311">
+        <v>-7861.148902854991</v>
+      </c>
+      <c r="D311">
+        <v>-41531.98662955214</v>
+      </c>
+      <c r="E311">
+        <v>30.02906669684581</v>
+      </c>
+      <c r="F311">
+        <v>3.008930825526024</v>
+      </c>
+      <c r="G311">
+        <v>-0.5600049939621196</v>
+      </c>
+      <c r="H311">
+        <v>-0.03640272392720671</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>50310</v>
+      </c>
+      <c r="C312">
+        <v>-5576.471492742665</v>
+      </c>
+      <c r="D312">
+        <v>-41889.65893847853</v>
+      </c>
+      <c r="E312">
+        <v>3.757251905838503</v>
+      </c>
+      <c r="F312">
+        <v>3.035918295344216</v>
+      </c>
+      <c r="G312">
+        <v>-0.3937212560617626</v>
+      </c>
+      <c r="H312">
+        <v>-0.03652423950082668</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>50311</v>
+      </c>
+      <c r="C313">
+        <v>-3276.097996687138</v>
+      </c>
+      <c r="D313">
+        <v>-42121.18442971849</v>
+      </c>
+      <c r="E313">
+        <v>-22.8295439942534</v>
+      </c>
+      <c r="F313">
+        <v>3.05376255327348</v>
+      </c>
+      <c r="G313">
+        <v>-0.226223614491085</v>
+      </c>
+      <c r="H313">
+        <v>-0.03652586338449176</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>50312</v>
+      </c>
+      <c r="C314">
+        <v>-966.8647039689126</v>
+      </c>
+      <c r="D314">
+        <v>-42225.93715122845</v>
+      </c>
+      <c r="E314">
+        <v>-49.7258920528663</v>
+      </c>
+      <c r="F314">
+        <v>3.062414132806318</v>
+      </c>
+      <c r="G314">
+        <v>-0.05800393646639983</v>
+      </c>
+      <c r="H314">
+        <v>-0.03641186095795504</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>50313</v>
+      </c>
+      <c r="C315">
+        <v>1344.38521020286</v>
+      </c>
+      <c r="D315">
+        <v>-42203.63763630501</v>
+      </c>
+      <c r="E315">
+        <v>-76.89903426795651</v>
+      </c>
+      <c r="F315">
+        <v>3.06184942379354</v>
+      </c>
+      <c r="G315">
+        <v>0.1104461111620457</v>
+      </c>
+      <c r="H315">
+        <v>-0.03618819895070152</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>50314</v>
+      </c>
+      <c r="C316">
+        <v>3650.795849638079</v>
+      </c>
+      <c r="D316">
+        <v>-42054.35574200103</v>
+      </c>
+      <c r="E316">
+        <v>-104.280539260283</v>
+      </c>
+      <c r="F316">
+        <v>3.052069961294008</v>
+      </c>
+      <c r="G316">
+        <v>0.2786351687814985</v>
+      </c>
+      <c r="H316">
+        <v>-0.03586205271288401</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>50315</v>
+      </c>
+      <c r="C317">
+        <v>5945.494529301817</v>
+      </c>
+      <c r="D317">
+        <v>-41778.52176059733</v>
+      </c>
+      <c r="E317">
+        <v>-131.7603266218796</v>
+      </c>
+      <c r="F317">
+        <v>3.033101913230213</v>
+      </c>
+      <c r="G317">
+        <v>0.4460720332093503</v>
+      </c>
+      <c r="H317">
+        <v>-0.03544113301018795</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>50316</v>
+      </c>
+      <c r="C318">
+        <v>8221.593960786618</v>
+      </c>
+      <c r="D318">
+        <v>-41376.94436324535</v>
+      </c>
+      <c r="E318">
+        <v>-159.1837140468714</v>
+      </c>
+      <c r="F318">
+        <v>3.004995803782734</v>
+      </c>
+      <c r="G318">
+        <v>0.6122654072722264</v>
+      </c>
+      <c r="H318">
+        <v>-0.03493281145682273</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>50317</v>
+      </c>
+      <c r="C319">
+        <v>10472.20518069497</v>
+      </c>
+      <c r="D319">
+        <v>-40850.83223738967</v>
+      </c>
+      <c r="E319">
+        <v>-186.3527915274373</v>
+      </c>
+      <c r="F319">
+        <v>2.967826455653602</v>
+      </c>
+      <c r="G319">
+        <v>0.7767236820659527</v>
+      </c>
+      <c r="H319">
+        <v>-0.03434301040194643</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>50318</v>
+      </c>
+      <c r="C320">
+        <v>12690.46593484227</v>
+      </c>
+      <c r="D320">
+        <v>-40201.81353906168</v>
+      </c>
+      <c r="E320">
+        <v>-213.0349038230624</v>
+      </c>
+      <c r="F320">
+        <v>2.921693162492212</v>
+      </c>
+      <c r="G320">
+        <v>0.9389548942637981</v>
+      </c>
+      <c r="H320">
+        <v>-0.03367487432670722</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>50319</v>
+      </c>
+      <c r="C321">
+        <v>14869.58821147773</v>
+      </c>
+      <c r="D321">
+        <v>-39431.94313885533</v>
+      </c>
+      <c r="E321">
+        <v>-238.9824365368927</v>
+      </c>
+      <c r="F321">
+        <v>2.86672024237069</v>
+      </c>
+      <c r="G321">
+        <v>1.098467143149233</v>
+      </c>
+      <c r="H321">
+        <v>-0.03292741664664831</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>50320</v>
+      </c>
+      <c r="C322">
+        <v>17002.92281659191</v>
+      </c>
+      <c r="D322">
+        <v>-38543.684576081</v>
+      </c>
+      <c r="E322">
+        <v>-263.9672026031703</v>
+      </c>
+      <c r="F322">
+        <v>2.803058288810975</v>
+      </c>
+      <c r="G322">
+        <v>1.254770057748184</v>
+      </c>
+      <c r="H322">
+        <v>-0.03209463448004007</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>50321</v>
+      </c>
+      <c r="C323">
+        <v>19084.02655588948</v>
+      </c>
+      <c r="D323">
+        <v>-37539.85848609189</v>
+      </c>
+      <c r="E323">
+        <v>-287.8265957120403</v>
+      </c>
+      <c r="F323">
+        <v>2.730886280163539</v>
+      </c>
+      <c r="G323">
+        <v>1.407378223536252</v>
+      </c>
+      <c r="H323">
+        <v>-0.03116583702589931</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>50322</v>
+      </c>
+      <c r="C324">
+        <v>21106.70603353733</v>
+      </c>
+      <c r="D324">
+        <v>-36423.56838079301</v>
+      </c>
+      <c r="E324">
+        <v>-310.5069412449436</v>
+      </c>
+      <c r="F324">
+        <v>2.650413724021272</v>
+      </c>
+      <c r="G324">
+        <v>1.555817246333199</v>
+      </c>
+      <c r="H324">
+        <v>-0.03012781006760224</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>50323</v>
+      </c>
+      <c r="C325">
+        <v>23065.0187416775</v>
+      </c>
+      <c r="D325">
+        <v>-35198.13948956126</v>
+      </c>
+      <c r="E325">
+        <v>-332.0790519633836</v>
+      </c>
+      <c r="F325">
+        <v>2.561880501171418</v>
+      </c>
+      <c r="G325">
+        <v>1.69963154578753</v>
+      </c>
+      <c r="H325">
+        <v>-0.0289687121698246</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>50324</v>
+      </c>
+      <c r="C326">
+        <v>24953.24290992601</v>
+      </c>
+      <c r="D326">
+        <v>-33867.1078852889</v>
+      </c>
+      <c r="E326">
+        <v>-352.7054034047427</v>
+      </c>
+      <c r="F326">
+        <v>2.465552184748788</v>
+      </c>
+      <c r="G326">
+        <v>1.838390428537867</v>
+      </c>
+      <c r="H326">
+        <v>-0.02768249664826119</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>50325</v>
+      </c>
+      <c r="C327">
+        <v>26765.8581359138</v>
+      </c>
+      <c r="D327">
+        <v>-32434.2641270243</v>
+      </c>
+      <c r="E327">
+        <v>-372.56551141369</v>
+      </c>
+      <c r="F327">
+        <v>2.36171100178478</v>
+      </c>
+      <c r="G327">
+        <v>1.971688948604075</v>
+      </c>
+      <c r="H327">
+        <v>-0.02627169412474622</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>50326.00000000001</v>
+      </c>
+      <c r="C328">
+        <v>28497.52284007242</v>
+      </c>
+      <c r="D328">
+        <v>-30903.69053526836</v>
+      </c>
+      <c r="E328">
+        <v>-391.7700287631711</v>
+      </c>
+      <c r="F328">
+        <v>2.250653380725783</v>
+      </c>
+      <c r="G328">
+        <v>2.099140397788803</v>
+      </c>
+      <c r="H328">
+        <v>-0.02474769656381002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>50327</v>
+      </c>
+      <c r="C329">
+        <v>30143.08763375571</v>
+      </c>
+      <c r="D329">
+        <v>-29279.78729174381</v>
+      </c>
+      <c r="E329">
+        <v>-410.3159078863982</v>
+      </c>
+      <c r="F329">
+        <v>2.132690237929892</v>
+      </c>
+      <c r="G329">
+        <v>2.220369479563621</v>
+      </c>
+      <c r="H329">
+        <v>-0.02312748405483522</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>50328</v>
+      </c>
+      <c r="C330">
+        <v>31697.6058393091</v>
+      </c>
+      <c r="D330">
+        <v>-27567.2754291152</v>
+      </c>
+      <c r="E330">
+        <v>-428.0940826138412</v>
+      </c>
+      <c r="F330">
+        <v>2.008151069349799</v>
+      </c>
+      <c r="G330">
+        <v>2.33500913739257</v>
+      </c>
+      <c r="H330">
+        <v>-0.0214290287343193</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>50329</v>
+      </c>
+      <c r="C331">
+        <v>33156.33657099939</v>
+      </c>
+      <c r="D331">
+        <v>-25771.18612329839</v>
+      </c>
+      <c r="E331">
+        <v>-444.9297579932785</v>
+      </c>
+      <c r="F331">
+        <v>1.877389417060888</v>
+      </c>
+      <c r="G331">
+        <v>2.442701543127514</v>
+      </c>
+      <c r="H331">
+        <v>-0.01966789671986298</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>50330</v>
+      </c>
+      <c r="C332">
+        <v>34514.76430354173</v>
+      </c>
+      <c r="D332">
+        <v>-23896.84900968718</v>
+      </c>
+      <c r="E332">
+        <v>-460.6280753571925</v>
+      </c>
+      <c r="F332">
+        <v>1.740784780063699</v>
+      </c>
+      <c r="G332">
+        <v>2.54310229502966</v>
+      </c>
+      <c r="H332">
+        <v>-0.0178557601750162</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>50331</v>
+      </c>
+      <c r="C333">
+        <v>35768.63173891538</v>
+      </c>
+      <c r="D333">
+        <v>-21949.87659911656</v>
+      </c>
+      <c r="E333">
+        <v>-475.0063235128439</v>
+      </c>
+      <c r="F333">
+        <v>1.598741443194924</v>
+      </c>
+      <c r="G333">
+        <v>2.635885061874993</v>
+      </c>
+      <c r="H333">
+        <v>-0.01600049492360638</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>50332</v>
+      </c>
+      <c r="C334">
+        <v>36913.97678786254</v>
+      </c>
+      <c r="D334">
+        <v>-19936.14285210353</v>
+      </c>
+      <c r="E334">
+        <v>-487.9094589796617</v>
+      </c>
+      <c r="F334">
+        <v>1.451685752571704</v>
+      </c>
+      <c r="G334">
+        <v>2.720745257389112</v>
+      </c>
+      <c r="H334">
+        <v>-0.01410700682048407</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>50333</v>
+      </c>
+      <c r="C335">
+        <v>37947.16588218907</v>
+      </c>
+      <c r="D335">
+        <v>-17861.75655452679</v>
+      </c>
+      <c r="E335">
+        <v>-499.2140425612961</v>
+      </c>
+      <c r="F335">
+        <v>1.30006307351634</v>
+      </c>
+      <c r="G335">
+        <v>2.797402496570411</v>
+      </c>
+      <c r="H335">
+        <v>-0.0121781243019308</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>50334</v>
+      </c>
+      <c r="C336">
+        <v>38864.9204320645</v>
+      </c>
+      <c r="D336">
+        <v>-15733.03070564767</v>
+      </c>
+      <c r="E336">
+        <v>-508.8269588107331</v>
+      </c>
+      <c r="F336">
+        <v>1.14433496505409</v>
+      </c>
+      <c r="G336">
+        <v>2.865602115193572</v>
+      </c>
+      <c r="H336">
+        <v>-0.01021527258297819</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>50335</v>
+      </c>
+      <c r="C337">
+        <v>39664.33605150943</v>
+      </c>
+      <c r="D337">
+        <v>-13556.44838725954</v>
+      </c>
+      <c r="E337">
+        <v>-516.6833556985172</v>
+      </c>
+      <c r="F337">
+        <v>0.9849761694815748</v>
+      </c>
+      <c r="G337">
+        <v>2.925116201339271</v>
+      </c>
+      <c r="H337">
+        <v>-0.008218875090341129</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>50336</v>
+      </c>
+      <c r="C338">
+        <v>40342.89428968443</v>
+      </c>
+      <c r="D338">
+        <v>-11338.62521514095</v>
+      </c>
+      <c r="E338">
+        <v>-522.7458653360796</v>
+      </c>
+      <c r="F338">
+        <v>0.8224728184815991</v>
+      </c>
+      <c r="G338">
+        <v>2.975744025781198</v>
+      </c>
+      <c r="H338">
+        <v>-0.006188754676735761</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>50337</v>
+      </c>
+      <c r="C339">
+        <v>40898.46799965892</v>
+      </c>
+      <c r="D339">
+        <v>-9086.269974382183</v>
+      </c>
+      <c r="E339">
+        <v>-527.0055199492978</v>
+      </c>
+      <c r="F339">
+        <v>0.6573213103340542</v>
+      </c>
+      <c r="G339">
+        <v>3.017312207715849</v>
+      </c>
+      <c r="H339">
+        <v>-0.004124591563280834</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>50338</v>
+      </c>
+      <c r="C340">
+        <v>41329.31681058333</v>
+      </c>
+      <c r="D340">
+        <v>-6806.146367059785</v>
+      </c>
+      <c r="E340">
+        <v>-529.4831015670323</v>
+      </c>
+      <c r="F340">
+        <v>0.49002423594923</v>
+      </c>
+      <c r="G340">
+        <v>3.04967536519532</v>
+      </c>
+      <c r="H340">
+        <v>-0.002026258241200009</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>50339.00000000001</v>
+      </c>
+      <c r="C341">
+        <v>41634.0740449275</v>
+      </c>
+      <c r="D341">
+        <v>-4505.042172045709</v>
+      </c>
+      <c r="E341">
+        <v>-530.2293209852921</v>
+      </c>
+      <c r="F341">
+        <v>0.3210895430686662</v>
+      </c>
+      <c r="G341">
+        <v>3.0727160306781</v>
+      </c>
+      <c r="H341">
+        <v>0.0001053721728126589</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>50340</v>
+      </c>
+      <c r="C342">
+        <v>41811.72796045451</v>
+      </c>
+      <c r="D342">
+        <v>-2189.752658449481</v>
+      </c>
+      <c r="E342">
+        <v>-529.3219449477458</v>
+      </c>
+      <c r="F342">
+        <v>0.1510294397991373</v>
+      </c>
+      <c r="G342">
+        <v>3.086344745324921</v>
+      </c>
+      <c r="H342">
+        <v>0.002267565094261049</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>50341</v>
+      </c>
+      <c r="C343">
+        <v>41861.60325732217</v>
+      </c>
+      <c r="D343">
+        <v>132.9173845906286</v>
+      </c>
+      <c r="E343">
+        <v>-526.8585441774858</v>
+      </c>
+      <c r="F343">
+        <v>-0.01964000744238707</v>
+      </c>
+      <c r="G343">
+        <v>3.090500249072453</v>
+      </c>
+      <c r="H343">
+        <v>0.004454886856113418</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>50342</v>
+      </c>
+      <c r="C344">
+        <v>41783.35080846184</v>
+      </c>
+      <c r="D344">
+        <v>2456.13444665036</v>
+      </c>
+      <c r="E344">
+        <v>-522.9447078024521</v>
+      </c>
+      <c r="F344">
+        <v>-0.1903982459517147</v>
+      </c>
+      <c r="G344">
+        <v>3.085149844742793</v>
+      </c>
+      <c r="H344">
+        <v>0.006658590105424885</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>50343</v>
+      </c>
+      <c r="C345">
+        <v>41576.95229994312</v>
+      </c>
+      <c r="D345">
+        <v>4773.008485563218</v>
+      </c>
+      <c r="E345">
+        <v>-517.6788517882452</v>
+      </c>
+      <c r="F345">
+        <v>-0.3607203227283819</v>
+      </c>
+      <c r="G345">
+        <v>3.070290197905585</v>
+      </c>
+      <c r="H345">
+        <v>0.008866501527417386</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>50344</v>
+      </c>
+      <c r="C346">
+        <v>41242.73984465306</v>
+      </c>
+      <c r="D346">
+        <v>7076.569814920856</v>
+      </c>
+      <c r="E346">
+        <v>-511.1355095684156</v>
+      </c>
+      <c r="F346">
+        <v>-0.5300776777620536</v>
+      </c>
+      <c r="G346">
+        <v>3.045948432594217</v>
+      </c>
+      <c r="H346">
+        <v>0.01106347463668201</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>50345</v>
+      </c>
+      <c r="C347">
+        <v>40781.42773134808</v>
+      </c>
+      <c r="D347">
+        <v>9359.763249397329</v>
+      </c>
+      <c r="E347">
+        <v>-503.3493564345389</v>
+      </c>
+      <c r="F347">
+        <v>-0.6979370666790601</v>
+      </c>
+      <c r="G347">
+        <v>3.012183177583952</v>
+      </c>
+      <c r="H347">
+        <v>0.0132323402584947</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>50346</v>
+      </c>
+      <c r="C348">
+        <v>40194.14572946719</v>
+      </c>
+      <c r="D348">
+        <v>11615.46745218645</v>
+      </c>
+      <c r="E348">
+        <v>-494.302123545228</v>
+      </c>
+      <c r="F348">
+        <v>-0.8637633488037543</v>
+      </c>
+      <c r="G348">
+        <v>2.969085817600931</v>
+      </c>
+      <c r="H348">
+        <v>0.01535554684985058</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>50347</v>
+      </c>
+      <c r="C349">
+        <v>39482.46281739751</v>
+      </c>
+      <c r="D349">
+        <v>13836.5402898133</v>
+      </c>
+      <c r="E349">
+        <v>-483.9154194660174</v>
+      </c>
+      <c r="F349">
+        <v>-1.027023140774636</v>
+      </c>
+      <c r="G349">
+        <v>2.916781133862489</v>
+      </c>
+      <c r="H349">
+        <v>0.01741724247055878</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>50348</v>
+      </c>
+      <c r="C350">
+        <v>38648.39278822926</v>
+      </c>
+      <c r="D350">
+        <v>16015.88431062173</v>
+      </c>
+      <c r="E350">
+        <v>-472.0543223311329</v>
+      </c>
+      <c r="F350">
+        <v>-1.187189942886823</v>
+      </c>
+      <c r="G350">
+        <v>2.855426811532256</v>
+      </c>
+      <c r="H350">
+        <v>0.01940561476407667</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>50349</v>
+      </c>
+      <c r="C351">
+        <v>37694.37912167353</v>
+      </c>
+      <c r="D351">
+        <v>18146.52141194195</v>
+      </c>
+      <c r="E351">
+        <v>-458.5480324142594</v>
+      </c>
+      <c r="F351">
+        <v>-1.343749946274681</v>
+      </c>
+      <c r="G351">
+        <v>2.785211229633818</v>
+      </c>
+      <c r="H351">
+        <v>0.02131496899568085</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>50350</v>
+      </c>
+      <c r="C352">
+        <v>36623.2648761737</v>
+      </c>
+      <c r="D352">
+        <v>20221.66312327511</v>
+      </c>
+      <c r="E352">
+        <v>-443.2312578493647</v>
+      </c>
+      <c r="F352">
+        <v>-1.49620685050492</v>
+      </c>
+      <c r="G352">
+        <v>2.70634947641213</v>
+      </c>
+      <c r="H352">
+        <v>0.02314664261252712</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>50351</v>
+      </c>
+      <c r="C353">
+        <v>35438.25939047061</v>
+      </c>
+      <c r="D353">
+        <v>22234.76449559308</v>
+      </c>
+      <c r="E353">
+        <v>-425.9999452884956</v>
+      </c>
+      <c r="F353">
+        <v>-1.644083637909835</v>
+      </c>
+      <c r="G353">
+        <v>2.619078718596695</v>
+      </c>
+      <c r="H353">
+        <v>0.02490778807343697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>50352</v>
+      </c>
+      <c r="C354">
+        <v>34142.91157346775</v>
+      </c>
+      <c r="D354">
+        <v>24179.55444878026</v>
+      </c>
+      <c r="E354">
+        <v>-406.8605126372564</v>
+      </c>
+      <c r="F354">
+        <v>-1.786920421472064</v>
+      </c>
+      <c r="G354">
+        <v>2.523655295277324</v>
+      </c>
+      <c r="H354">
+        <v>0.02660780362833393</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>50353</v>
+      </c>
+      <c r="C355">
+        <v>32741.09109733516</v>
+      </c>
+      <c r="D355">
+        <v>26050.0400833786</v>
+      </c>
+      <c r="E355">
+        <v>-385.9457900025307</v>
+      </c>
+      <c r="F355">
+        <v>-1.924270193296227</v>
+      </c>
+      <c r="G355">
+        <v>2.420355694110792</v>
+      </c>
+      <c r="H355">
+        <v>0.02825362613492173</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>50354.00000000001</v>
+      </c>
+      <c r="C356">
+        <v>31236.97539051346</v>
+      </c>
+      <c r="D356">
+        <v>27840.48627548738</v>
+      </c>
+      <c r="E356">
+        <v>-363.4853693108782</v>
+      </c>
+      <c r="F356">
+        <v>-2.055696177803697</v>
+      </c>
+      <c r="G356">
+        <v>2.309481119692044</v>
+      </c>
+      <c r="H356">
+        <v>0.02984606744934826</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>50355</v>
+      </c>
+      <c r="C357">
+        <v>29635.04547650608</v>
+      </c>
+      <c r="D357">
+        <v>29545.38069156008</v>
+      </c>
+      <c r="E357">
+        <v>-339.745437914677</v>
+      </c>
+      <c r="F357">
+        <v>-2.180773143224705</v>
+      </c>
+      <c r="G357">
+        <v>2.19136255986047</v>
+      </c>
+      <c r="H357">
+        <v>0.03137879434171684</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>50356</v>
+      </c>
+      <c r="C358">
+        <v>27940.09433506496</v>
+      </c>
+      <c r="D358">
+        <v>31159.40565744712</v>
+      </c>
+      <c r="E358">
+        <v>-314.9694315035708</v>
+      </c>
+      <c r="F358">
+        <v>-2.299091724801838</v>
+      </c>
+      <c r="G358">
+        <v>2.066363065511742</v>
+      </c>
+      <c r="H358">
+        <v>0.03283989278870499</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>50357</v>
+      </c>
+      <c r="C359">
+        <v>26157.24159176212</v>
+      </c>
+      <c r="D359">
+        <v>32677.43721183985</v>
+      </c>
+      <c r="E359">
+        <v>-289.3433275704929</v>
+      </c>
+      <c r="F359">
+        <v>-2.410263152207746</v>
+      </c>
+      <c r="G359">
+        <v>1.934876427185358</v>
+      </c>
+      <c r="H359">
+        <v>0.03421470968622146</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>50358</v>
+      </c>
+      <c r="C360">
+        <v>24291.94107100525</v>
+      </c>
+      <c r="D360">
+        <v>34094.57488049283</v>
+      </c>
+      <c r="E360">
+        <v>-262.989572856196</v>
+      </c>
+      <c r="F360">
+        <v>-2.51392274894356</v>
+      </c>
+      <c r="G360">
+        <v>1.797323694751098</v>
+      </c>
+      <c r="H360">
+        <v>0.03548856180428826</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>50359</v>
+      </c>
+      <c r="C361">
+        <v>22349.9725476059</v>
+      </c>
+      <c r="D361">
+        <v>35406.18909243324</v>
+      </c>
+      <c r="E361">
+        <v>-235.97936653982</v>
+      </c>
+      <c r="F361">
+        <v>-2.609732146595089</v>
+      </c>
+      <c r="G361">
+        <v>1.654149307823208</v>
+      </c>
+      <c r="H361">
+        <v>0.03664853251316447</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>50360</v>
+      </c>
+      <c r="C362">
+        <v>20337.41874536315</v>
+      </c>
+      <c r="D362">
+        <v>36607.96967071643</v>
+      </c>
+      <c r="E362">
+        <v>-208.3504823241902</v>
+      </c>
+      <c r="F362">
+        <v>-2.697380785136456</v>
+      </c>
+      <c r="G362">
+        <v>1.505817728665494</v>
+      </c>
+      <c r="H362">
+        <v>0.03768426333210931</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>50361.00000000001</v>
+      </c>
+      <c r="C363">
+        <v>18260.63389072562</v>
+      </c>
+      <c r="D363">
+        <v>37695.9654428539</v>
+      </c>
+      <c r="E363">
+        <v>-180.1223970467737</v>
+      </c>
+      <c r="F363">
+        <v>-2.776587115967321</v>
+      </c>
+      <c r="G363">
+        <v>1.352810663335212</v>
+      </c>
+      <c r="H363">
+        <v>0.03858803869414353</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>50362</v>
+      </c>
+      <c r="C364">
+        <v>16126.20953947519</v>
+      </c>
+      <c r="D364">
+        <v>38666.61285596911</v>
+      </c>
+      <c r="E364">
+        <v>-151.3060160435545</v>
+      </c>
+      <c r="F364">
+        <v>-2.847099638171413</v>
+      </c>
+      <c r="G364">
+        <v>1.19562462674024</v>
+      </c>
+      <c r="H364">
+        <v>0.03935454468352166</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>50363</v>
+      </c>
+      <c r="C365">
+        <v>13940.94045846885</v>
+      </c>
+      <c r="D365">
+        <v>39516.75578628782</v>
+      </c>
+      <c r="E365">
+        <v>-121.9088405422545</v>
+      </c>
+      <c r="F365">
+        <v>-2.908697741591226</v>
+      </c>
+      <c r="G365">
+        <v>1.03476859318071</v>
+      </c>
+      <c r="H365">
+        <v>0.03998059063536286</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>50364</v>
+      </c>
+      <c r="C366">
+        <v>11711.79089483022</v>
+      </c>
+      <c r="D366">
+        <v>40243.65958268139</v>
+      </c>
+      <c r="E366">
+        <v>-91.93791892260296</v>
+      </c>
+      <c r="F366">
+        <v>-2.961192277078965</v>
+      </c>
+      <c r="G366">
+        <v>0.870761572913996</v>
+      </c>
+      <c r="H366">
+        <v>0.04046494459845416</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>50365</v>
+      </c>
+      <c r="C367">
+        <v>9445.860397016486</v>
+      </c>
+      <c r="D367">
+        <v>40845.02145455094</v>
+      </c>
+      <c r="E367">
+        <v>-61.40317808138877</v>
+      </c>
+      <c r="F367">
+        <v>-3.004425766900316</v>
+      </c>
+      <c r="G367">
+        <v>0.7041300747977264</v>
+      </c>
+      <c r="H367">
+        <v>0.04080831179118779</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>50365.25000000001</v>
+      </c>
+      <c r="C368">
+        <v>-41135.33900938626</v>
+      </c>
+      <c r="D368">
+        <v>9021.513030743694</v>
+      </c>
+      <c r="E368">
+        <v>557.9225884060558</v>
+      </c>
+      <c r="F368">
+        <v>-0.6629932708310549</v>
+      </c>
+      <c r="G368">
+        <v>-2.999553009011977</v>
+      </c>
+      <c r="H368">
+        <v>0.004114485537843689</v>
       </c>
     </row>
   </sheetData>
